--- a/src/main/resources/documents/predsjednici.xlsx
+++ b/src/main/resources/documents/predsjednici.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malin\Documents\Izbori\flow-crm-tutorial\src\main\resources\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74533D39-05B2-4814-A14A-57D150A26146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC1EBEC-8B8A-421D-B7AB-22D9D12B1EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5958,12 +5958,6 @@
     <t>034B173 B</t>
   </si>
   <si>
-    <t>034B0100</t>
-  </si>
-  <si>
-    <t>034B0101</t>
-  </si>
-  <si>
     <t>065/244-163</t>
   </si>
   <si>
@@ -6055,6 +6049,12 @@
   </si>
   <si>
     <t>034MT025</t>
+  </si>
+  <si>
+    <t>034B100</t>
+  </si>
+  <si>
+    <t>034B101</t>
   </si>
 </sst>
 </file>
@@ -6845,8 +6845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7263,7 +7263,7 @@
         <v>939</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>1977</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7280,7 +7280,7 @@
         <v>940</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>1977</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -7297,7 +7297,7 @@
         <v>941</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>1978</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -7314,7 +7314,7 @@
         <v>944</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>1978</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -11168,7 +11168,7 @@
       </c>
       <c r="C254" s="68"/>
       <c r="D254" s="69" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="E254" s="15" t="s">
         <v>616</v>
@@ -11346,16 +11346,16 @@
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="16" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B265" s="16" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C265" s="51" t="s">
         <v>1980</v>
       </c>
-      <c r="B265" s="16" t="s">
+      <c r="D265" s="17" t="s">
         <v>1981</v>
-      </c>
-      <c r="C265" s="51" t="s">
-        <v>1982</v>
-      </c>
-      <c r="D265" s="17" t="s">
-        <v>1983</v>
       </c>
       <c r="E265" s="18" t="s">
         <v>309</v>
@@ -12732,7 +12732,7 @@
         <v>1766</v>
       </c>
       <c r="D346" s="69" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="E346" s="15" t="s">
         <v>1132</v>
@@ -15727,7 +15727,7 @@
         <v>1375</v>
       </c>
       <c r="E522" s="44" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="523" spans="1:5">
@@ -15736,7 +15736,7 @@
       <c r="C523" s="49"/>
       <c r="D523" s="12"/>
       <c r="E523" s="45" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="524" spans="1:5">
@@ -15753,7 +15753,7 @@
         <v>1378</v>
       </c>
       <c r="E524" s="44" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -15762,7 +15762,7 @@
       <c r="C525" s="49"/>
       <c r="D525" s="12"/>
       <c r="E525" s="45" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -15779,7 +15779,7 @@
         <v>1380</v>
       </c>
       <c r="E526" s="44" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -15788,7 +15788,7 @@
       <c r="C527" s="49"/>
       <c r="D527" s="12"/>
       <c r="E527" s="45" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -15805,7 +15805,7 @@
         <v>1381</v>
       </c>
       <c r="E528" s="44" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -15814,7 +15814,7 @@
       <c r="C529" s="49"/>
       <c r="D529" s="12"/>
       <c r="E529" s="45" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -15831,7 +15831,7 @@
         <v>1383</v>
       </c>
       <c r="E530" s="44" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -15840,7 +15840,7 @@
       <c r="C531" s="49"/>
       <c r="D531" s="12"/>
       <c r="E531" s="45" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -15857,7 +15857,7 @@
         <v>1384</v>
       </c>
       <c r="E532" s="44" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -15866,7 +15866,7 @@
       <c r="C533" s="49"/>
       <c r="D533" s="12"/>
       <c r="E533" s="45" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -15883,7 +15883,7 @@
         <v>1387</v>
       </c>
       <c r="E534" s="44" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -15892,7 +15892,7 @@
       <c r="C535" s="49"/>
       <c r="D535" s="12"/>
       <c r="E535" s="45" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -15909,7 +15909,7 @@
         <v>1388</v>
       </c>
       <c r="E536" s="44" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -15918,7 +15918,7 @@
       <c r="C537" s="49"/>
       <c r="D537" s="12"/>
       <c r="E537" s="45" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -15935,7 +15935,7 @@
         <v>1391</v>
       </c>
       <c r="E538" s="44" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -15944,7 +15944,7 @@
       <c r="C539" s="49"/>
       <c r="D539" s="12"/>
       <c r="E539" s="45" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="540" spans="1:5">
@@ -15961,7 +15961,7 @@
         <v>1393</v>
       </c>
       <c r="E540" s="44" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -15970,7 +15970,7 @@
       <c r="C541" s="49"/>
       <c r="D541" s="12"/>
       <c r="E541" s="45" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="542" spans="1:5">
@@ -15987,7 +15987,7 @@
         <v>1394</v>
       </c>
       <c r="E542" s="44" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -15996,7 +15996,7 @@
       <c r="C543" s="49"/>
       <c r="D543" s="12"/>
       <c r="E543" s="45" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -16013,7 +16013,7 @@
         <v>1395</v>
       </c>
       <c r="E544" s="44" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -16022,7 +16022,7 @@
       <c r="C545" s="49"/>
       <c r="D545" s="12"/>
       <c r="E545" s="45" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="546" spans="1:5">
@@ -16039,7 +16039,7 @@
         <v>1398</v>
       </c>
       <c r="E546" s="44" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -16048,7 +16048,7 @@
       <c r="C547" s="49"/>
       <c r="D547" s="12"/>
       <c r="E547" s="44" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -16065,7 +16065,7 @@
         <v>1400</v>
       </c>
       <c r="E548" s="44" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -16074,7 +16074,7 @@
       <c r="C549" s="49"/>
       <c r="D549" s="12"/>
       <c r="E549" s="45" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -16091,7 +16091,7 @@
         <v>1402</v>
       </c>
       <c r="E550" s="44" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="551" spans="1:5">
@@ -16100,7 +16100,7 @@
       <c r="C551" s="49"/>
       <c r="D551" s="12"/>
       <c r="E551" s="45" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -16117,7 +16117,7 @@
         <v>1404</v>
       </c>
       <c r="E552" s="44" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -16126,7 +16126,7 @@
       <c r="C553" s="49"/>
       <c r="D553" s="12"/>
       <c r="E553" s="45" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -16143,7 +16143,7 @@
         <v>1406</v>
       </c>
       <c r="E554" s="44" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -16152,7 +16152,7 @@
       <c r="C555" s="49"/>
       <c r="D555" s="12"/>
       <c r="E555" s="45" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -16169,7 +16169,7 @@
         <v>1407</v>
       </c>
       <c r="E556" s="44" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -16178,7 +16178,7 @@
       <c r="C557" s="49"/>
       <c r="D557" s="12"/>
       <c r="E557" s="45" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -16195,7 +16195,7 @@
         <v>1409</v>
       </c>
       <c r="E558" s="44" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="559" spans="1:5">
@@ -16204,7 +16204,7 @@
       <c r="C559" s="49"/>
       <c r="D559" s="12"/>
       <c r="E559" s="45" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -16221,7 +16221,7 @@
         <v>1410</v>
       </c>
       <c r="E560" s="44" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -16230,7 +16230,7 @@
       <c r="C561" s="49"/>
       <c r="D561" s="12"/>
       <c r="E561" s="45" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -16247,7 +16247,7 @@
         <v>1412</v>
       </c>
       <c r="E562" s="44" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -16256,7 +16256,7 @@
       <c r="C563" s="49"/>
       <c r="D563" s="12"/>
       <c r="E563" s="45" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -16273,7 +16273,7 @@
         <v>1414</v>
       </c>
       <c r="E564" s="44" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -16282,7 +16282,7 @@
       <c r="C565" s="49"/>
       <c r="D565" s="12"/>
       <c r="E565" s="45" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="566" spans="1:5">
@@ -16299,7 +16299,7 @@
         <v>1415</v>
       </c>
       <c r="E566" s="44" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -16308,7 +16308,7 @@
       <c r="C567" s="49"/>
       <c r="D567" s="12"/>
       <c r="E567" s="45" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="568" spans="1:5">
@@ -16323,7 +16323,7 @@
         <v>1416</v>
       </c>
       <c r="E568" s="44" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="569" spans="1:5">
@@ -16332,7 +16332,7 @@
       <c r="C569" s="49"/>
       <c r="D569" s="12"/>
       <c r="E569" s="45" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="570" spans="1:5">
@@ -16349,7 +16349,7 @@
         <v>1417</v>
       </c>
       <c r="E570" s="44" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -16362,7 +16362,7 @@
       <c r="C571" s="49"/>
       <c r="D571" s="12"/>
       <c r="E571" s="45" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="572" spans="1:5">

--- a/src/main/resources/documents/predsjednici.xlsx
+++ b/src/main/resources/documents/predsjednici.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malin\Documents\Izbori\flow-crm-tutorial\src\main\resources\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98791A60-5425-48AF-8E98-AC872A38CB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4342FD-22E2-4B8D-8890-5812CCF8682B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="2016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="2016">
   <si>
     <t>JMBG</t>
   </si>
@@ -6911,10 +6911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E577"/>
+  <dimension ref="A1:E575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="G303" sqref="G303"/>
+    <sheetView tabSelected="1" topLeftCell="A562" workbookViewId="0">
+      <selection activeCell="J571" sqref="J571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6945,10 +6945,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C2" s="46" t="s">
         <v>1422</v>
@@ -16498,40 +16498,6 @@
         <v>1421</v>
       </c>
       <c r="E575" s="45" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="576" spans="1:5">
-      <c r="A576" s="8" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B576" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C576" s="48" t="s">
-        <v>1963</v>
-      </c>
-      <c r="D576" s="9" t="s">
-        <v>1419</v>
-      </c>
-      <c r="E576" s="44" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="577" spans="1:5">
-      <c r="A577" s="11" t="s">
-        <v>586</v>
-      </c>
-      <c r="B577" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C577" s="49" t="s">
-        <v>1964</v>
-      </c>
-      <c r="D577" s="12" t="s">
-        <v>1421</v>
-      </c>
-      <c r="E577" s="45" t="s">
         <v>1420</v>
       </c>
     </row>

--- a/src/main/resources/documents/predsjednici.xlsx
+++ b/src/main/resources/documents/predsjednici.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malin\Documents\Izbori\flow-crm-tutorial\src\main\resources\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4342FD-22E2-4B8D-8890-5812CCF8682B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3D1A43-D270-4B28-B632-EFD8CB06076C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4224,12 +4224,6 @@
     <t>066/470-638</t>
   </si>
   <si>
-    <t>DUŠAN</t>
-  </si>
-  <si>
-    <t>066/530-629</t>
-  </si>
-  <si>
     <t>SMOLIĆ</t>
   </si>
   <si>
@@ -5886,9 +5880,6 @@
     <t>0508993100017</t>
   </si>
   <si>
-    <t>1212997100000</t>
-  </si>
-  <si>
     <t>2702984190060</t>
   </si>
   <si>
@@ -6073,6 +6064,15 @@
   </si>
   <si>
     <t>065/072-903</t>
+  </si>
+  <si>
+    <t>DANKO</t>
+  </si>
+  <si>
+    <t>1610968100013</t>
+  </si>
+  <si>
+    <t>065/514-054</t>
   </si>
 </sst>
 </file>
@@ -6913,8 +6913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A562" workbookViewId="0">
-      <selection activeCell="J571" sqref="J571"/>
+    <sheetView tabSelected="1" topLeftCell="A540" workbookViewId="0">
+      <selection activeCell="D550" sqref="D550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6951,7 +6951,7 @@
         <v>625</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>626</v>
@@ -6968,7 +6968,7 @@
         <v>628</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>629</v>
@@ -6985,7 +6985,7 @@
         <v>181</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>630</v>
@@ -7002,7 +7002,7 @@
         <v>152</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>631</v>
@@ -7019,7 +7019,7 @@
         <v>167</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>632</v>
@@ -7036,7 +7036,7 @@
         <v>82</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>634</v>
@@ -7053,7 +7053,7 @@
         <v>139</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>635</v>
@@ -7070,7 +7070,7 @@
         <v>122</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>636</v>
@@ -7087,7 +7087,7 @@
         <v>50</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>637</v>
@@ -7104,7 +7104,7 @@
         <v>230</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>638</v>
@@ -7121,7 +7121,7 @@
         <v>76</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>639</v>
@@ -7138,7 +7138,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>640</v>
@@ -7155,7 +7155,7 @@
         <v>122</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>596</v>
@@ -7172,7 +7172,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>641</v>
@@ -7189,13 +7189,13 @@
         <v>121</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>505</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7206,13 +7206,13 @@
         <v>642</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>643</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7223,13 +7223,13 @@
         <v>127</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>644</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7240,13 +7240,13 @@
         <v>50</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>646</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7257,7 +7257,7 @@
         <v>159</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>647</v>
@@ -7274,7 +7274,7 @@
         <v>649</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>650</v>
@@ -7291,7 +7291,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>651</v>
@@ -7308,7 +7308,7 @@
         <v>38</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>652</v>
@@ -7325,13 +7325,13 @@
         <v>28</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>939</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7342,13 +7342,13 @@
         <v>150</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>940</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -7359,13 +7359,13 @@
         <v>28</v>
       </c>
       <c r="C26" s="68" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="D26" s="69" t="s">
         <v>941</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -7376,13 +7376,13 @@
         <v>943</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>944</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -7393,7 +7393,7 @@
         <v>110</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>653</v>
@@ -7410,7 +7410,7 @@
         <v>70</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>266</v>
@@ -7427,7 +7427,7 @@
         <v>132</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>654</v>
@@ -7444,7 +7444,7 @@
         <v>71</v>
       </c>
       <c r="C31" s="82" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="D31" s="83" t="s">
         <v>1179</v>
@@ -7461,7 +7461,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>659</v>
@@ -7478,7 +7478,7 @@
         <v>25</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>662</v>
@@ -7495,7 +7495,7 @@
         <v>19</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>663</v>
@@ -7512,7 +7512,7 @@
         <v>19</v>
       </c>
       <c r="C35" s="51" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>665</v>
@@ -7529,7 +7529,7 @@
         <v>306</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>307</v>
@@ -7546,7 +7546,7 @@
         <v>86</v>
       </c>
       <c r="C37" s="49" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D37" s="12">
         <v>65799336</v>
@@ -7563,7 +7563,7 @@
         <v>667</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="D38" s="21" t="s">
         <v>668</v>
@@ -7580,7 +7580,7 @@
         <v>135</v>
       </c>
       <c r="C39" s="49" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>669</v>
@@ -7597,7 +7597,7 @@
         <v>671</v>
       </c>
       <c r="C40" s="48" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>672</v>
@@ -7614,7 +7614,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="51" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>674</v>
@@ -7631,7 +7631,7 @@
         <v>675</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>676</v>
@@ -7648,7 +7648,7 @@
         <v>239</v>
       </c>
       <c r="C43" s="49" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="D43" s="23" t="s">
         <v>677</v>
@@ -7665,7 +7665,7 @@
         <v>222</v>
       </c>
       <c r="C44" s="48" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>678</v>
@@ -7682,7 +7682,7 @@
         <v>42</v>
       </c>
       <c r="C45" s="51" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="D45" s="17" t="s">
         <v>679</v>
@@ -7699,7 +7699,7 @@
         <v>150</v>
       </c>
       <c r="C46" s="48" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>680</v>
@@ -7716,7 +7716,7 @@
         <v>336</v>
       </c>
       <c r="C47" s="51" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>681</v>
@@ -7733,7 +7733,7 @@
         <v>454</v>
       </c>
       <c r="C48" s="48" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>682</v>
@@ -7750,7 +7750,7 @@
         <v>684</v>
       </c>
       <c r="C49" s="49" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>685</v>
@@ -7767,7 +7767,7 @@
         <v>134</v>
       </c>
       <c r="C50" s="48" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>444</v>
@@ -7778,16 +7778,16 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="8" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C51" s="48" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>445</v>
@@ -7801,7 +7801,7 @@
         <v>62</v>
       </c>
       <c r="C52" s="68" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="D52" s="69" t="s">
         <v>686</v>
@@ -7818,7 +7818,7 @@
         <v>81</v>
       </c>
       <c r="C53" s="51" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>688</v>
@@ -7835,7 +7835,7 @@
         <v>36</v>
       </c>
       <c r="C54" s="56" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="D54" s="27" t="s">
         <v>689</v>
@@ -7852,7 +7852,7 @@
         <v>59</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="D55" s="17" t="s">
         <v>691</v>
@@ -7869,7 +7869,7 @@
         <v>220</v>
       </c>
       <c r="C56" s="49" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>692</v>
@@ -7886,7 +7886,7 @@
         <v>181</v>
       </c>
       <c r="C57" s="48" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>708</v>
@@ -7903,7 +7903,7 @@
         <v>91</v>
       </c>
       <c r="C58" s="49" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>694</v>
@@ -7920,7 +7920,7 @@
         <v>163</v>
       </c>
       <c r="C59" s="51" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="D59" s="17" t="s">
         <v>695</v>
@@ -7937,13 +7937,13 @@
         <v>19</v>
       </c>
       <c r="C60" s="49" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>696</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -7954,13 +7954,13 @@
         <v>697</v>
       </c>
       <c r="C61" s="51" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="D61" s="17" t="s">
         <v>698</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -7971,13 +7971,13 @@
         <v>64</v>
       </c>
       <c r="C62" s="49" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D62" s="23" t="s">
         <v>700</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -7988,13 +7988,13 @@
         <v>181</v>
       </c>
       <c r="C63" s="51" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="D63" s="17" t="s">
         <v>702</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -8005,7 +8005,7 @@
         <v>107</v>
       </c>
       <c r="C64" s="49" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>293</v>
@@ -8022,7 +8022,7 @@
         <v>703</v>
       </c>
       <c r="C65" s="51" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="D65" s="17" t="s">
         <v>704</v>
@@ -8039,7 +8039,7 @@
         <v>91</v>
       </c>
       <c r="C66" s="57" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="D66" s="30" t="s">
         <v>705</v>
@@ -8056,7 +8056,7 @@
         <v>57</v>
       </c>
       <c r="C67" s="51" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="D67" s="17" t="s">
         <v>706</v>
@@ -8073,7 +8073,7 @@
         <v>130</v>
       </c>
       <c r="C68" s="49" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>707</v>
@@ -8090,7 +8090,7 @@
         <v>129</v>
       </c>
       <c r="C69" s="48" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>693</v>
@@ -8107,7 +8107,7 @@
         <v>106</v>
       </c>
       <c r="C70" s="57" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="D70" s="30" t="s">
         <v>709</v>
@@ -8124,7 +8124,7 @@
         <v>106</v>
       </c>
       <c r="C71" s="51" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="D71" s="17" t="s">
         <v>711</v>
@@ -8141,7 +8141,7 @@
         <v>181</v>
       </c>
       <c r="C72" s="68" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="D72" s="69" t="s">
         <v>712</v>
@@ -8158,7 +8158,7 @@
         <v>23</v>
       </c>
       <c r="C73" s="51" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="D73" s="17" t="s">
         <v>713</v>
@@ -8175,7 +8175,7 @@
         <v>50</v>
       </c>
       <c r="C74" s="57" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="D74" s="30" t="s">
         <v>715</v>
@@ -8192,7 +8192,7 @@
         <v>60</v>
       </c>
       <c r="C75" s="51" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="D75" s="17" t="s">
         <v>716</v>
@@ -8209,7 +8209,7 @@
         <v>60</v>
       </c>
       <c r="C76" s="49" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="D76" s="12" t="s">
         <v>717</v>
@@ -8226,7 +8226,7 @@
         <v>18</v>
       </c>
       <c r="C77" s="48" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>602</v>
@@ -8243,7 +8243,7 @@
         <v>67</v>
       </c>
       <c r="C78" s="58" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="D78" s="33" t="s">
         <v>718</v>
@@ -8260,7 +8260,7 @@
         <v>721</v>
       </c>
       <c r="C79" s="51" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="D79" s="17" t="s">
         <v>722</v>
@@ -8277,7 +8277,7 @@
         <v>127</v>
       </c>
       <c r="C80" s="72" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="D80" s="73" t="s">
         <v>723</v>
@@ -8294,7 +8294,7 @@
         <v>65</v>
       </c>
       <c r="C81" s="51" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="D81" s="17" t="s">
         <v>724</v>
@@ -8311,7 +8311,7 @@
         <v>50</v>
       </c>
       <c r="C82" s="49" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="D82" s="12">
         <v>65499043</v>
@@ -8328,7 +8328,7 @@
         <v>726</v>
       </c>
       <c r="C83" s="51" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="D83" s="17" t="s">
         <v>727</v>
@@ -8345,7 +8345,7 @@
         <v>33</v>
       </c>
       <c r="C84" s="49" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="D84" s="12">
         <v>66118634</v>
@@ -8362,7 +8362,7 @@
         <v>47</v>
       </c>
       <c r="C85" s="51" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="D85" s="17" t="s">
         <v>729</v>
@@ -8379,7 +8379,7 @@
         <v>730</v>
       </c>
       <c r="C86" s="57" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="D86" s="30" t="s">
         <v>731</v>
@@ -8396,7 +8396,7 @@
         <v>150</v>
       </c>
       <c r="C87" s="51" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="D87" s="17" t="s">
         <v>733</v>
@@ -8413,7 +8413,7 @@
         <v>54</v>
       </c>
       <c r="C88" s="49" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="D88" s="12" t="s">
         <v>734</v>
@@ -8430,7 +8430,7 @@
         <v>71</v>
       </c>
       <c r="C89" s="48" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>735</v>
@@ -8447,7 +8447,7 @@
         <v>737</v>
       </c>
       <c r="C90" s="53" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="D90" s="20" t="s">
         <v>738</v>
@@ -8464,7 +8464,7 @@
         <v>336</v>
       </c>
       <c r="C91" s="51" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="D91" s="16" t="s">
         <v>741</v>
@@ -8481,7 +8481,7 @@
         <v>154</v>
       </c>
       <c r="C92" s="68" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="D92" s="69" t="s">
         <v>742</v>
@@ -8498,7 +8498,7 @@
         <v>745</v>
       </c>
       <c r="C93" s="51" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="D93" s="17" t="s">
         <v>746</v>
@@ -8515,7 +8515,7 @@
         <v>747</v>
       </c>
       <c r="C94" s="53" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="D94" s="20" t="s">
         <v>748</v>
@@ -8532,7 +8532,7 @@
         <v>751</v>
       </c>
       <c r="C95" s="48" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>752</v>
@@ -8549,7 +8549,7 @@
         <v>25</v>
       </c>
       <c r="C96" s="72" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="D96" s="73" t="s">
         <v>754</v>
@@ -8566,7 +8566,7 @@
         <v>757</v>
       </c>
       <c r="C97" s="51" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="D97" s="17" t="s">
         <v>758</v>
@@ -8583,7 +8583,7 @@
         <v>64</v>
       </c>
       <c r="C98" s="53" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="D98" s="20" t="s">
         <v>760</v>
@@ -8600,7 +8600,7 @@
         <v>55</v>
       </c>
       <c r="C99" s="51" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="D99" s="17" t="s">
         <v>763</v>
@@ -8617,7 +8617,7 @@
         <v>32</v>
       </c>
       <c r="C100" s="49" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="D100" s="12" t="s">
         <v>764</v>
@@ -8634,7 +8634,7 @@
         <v>766</v>
       </c>
       <c r="C101" s="51" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>767</v>
@@ -8651,7 +8651,7 @@
         <v>27</v>
       </c>
       <c r="C102" s="57" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="D102" s="30" t="s">
         <v>768</v>
@@ -8668,7 +8668,7 @@
         <v>113</v>
       </c>
       <c r="C103" s="51" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="D103" s="17" t="s">
         <v>769</v>
@@ -8685,7 +8685,7 @@
         <v>127</v>
       </c>
       <c r="C104" s="68" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="D104" s="67" t="s">
         <v>771</v>
@@ -8702,7 +8702,7 @@
         <v>44</v>
       </c>
       <c r="C105" s="51" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="D105" s="17" t="s">
         <v>772</v>
@@ -8719,7 +8719,7 @@
         <v>774</v>
       </c>
       <c r="C106" s="49" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="D106" s="36" t="s">
         <v>603</v>
@@ -8736,7 +8736,7 @@
         <v>197</v>
       </c>
       <c r="C107" s="51" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="D107" s="17" t="s">
         <v>775</v>
@@ -8753,7 +8753,7 @@
         <v>777</v>
       </c>
       <c r="C108" s="68" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="D108" s="69" t="s">
         <v>778</v>
@@ -8770,7 +8770,7 @@
         <v>18</v>
       </c>
       <c r="C109" s="48" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="D109" s="9">
         <v>66329475</v>
@@ -8787,13 +8787,13 @@
         <v>46</v>
       </c>
       <c r="C110" s="53" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="D110" s="20" t="s">
         <v>780</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -8804,13 +8804,13 @@
         <v>150</v>
       </c>
       <c r="C111" s="51" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="D111" s="17" t="s">
         <v>781</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -8821,13 +8821,13 @@
         <v>76</v>
       </c>
       <c r="C112" s="68" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="D112" s="69" t="s">
         <v>782</v>
       </c>
       <c r="E112" s="18" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -8838,13 +8838,13 @@
         <v>39</v>
       </c>
       <c r="C113" s="51" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="D113" s="16" t="s">
         <v>783</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -8855,13 +8855,13 @@
         <v>36</v>
       </c>
       <c r="C114" s="53" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="D114" s="20" t="s">
         <v>785</v>
       </c>
       <c r="E114" s="18" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -8872,13 +8872,13 @@
         <v>26</v>
       </c>
       <c r="C115" s="51" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="D115" s="17" t="s">
         <v>786</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -8889,13 +8889,13 @@
         <v>154</v>
       </c>
       <c r="C116" s="51" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="D116" s="17" t="s">
         <v>1020</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -8906,13 +8906,13 @@
         <v>62</v>
       </c>
       <c r="C117" s="51" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="D117" s="17" t="s">
         <v>789</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -8923,13 +8923,13 @@
         <v>57</v>
       </c>
       <c r="C118" s="53" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="D118" s="20" t="s">
         <v>790</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -8940,13 +8940,13 @@
         <v>98</v>
       </c>
       <c r="C119" s="51" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="D119" s="17" t="s">
         <v>791</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -8957,7 +8957,7 @@
         <v>55</v>
       </c>
       <c r="C120" s="68" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="D120" s="69" t="s">
         <v>793</v>
@@ -8974,7 +8974,7 @@
         <v>262</v>
       </c>
       <c r="C121" s="51" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="D121" s="17" t="s">
         <v>795</v>
@@ -8991,7 +8991,7 @@
         <v>19</v>
       </c>
       <c r="C122" s="51" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="D122" s="17" t="s">
         <v>427</v>
@@ -9008,7 +9008,7 @@
         <v>19</v>
       </c>
       <c r="C123" s="53" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="D123" s="20" t="s">
         <v>252</v>
@@ -9025,7 +9025,7 @@
         <v>3</v>
       </c>
       <c r="C124" s="72" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="D124" s="73" t="s">
         <v>796</v>
@@ -9042,7 +9042,7 @@
         <v>91</v>
       </c>
       <c r="C125" s="48" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>797</v>
@@ -9059,7 +9059,7 @@
         <v>28</v>
       </c>
       <c r="C126" s="53" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="D126" s="20" t="s">
         <v>798</v>
@@ -9076,7 +9076,7 @@
         <v>106</v>
       </c>
       <c r="C127" s="51" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="D127" s="16" t="s">
         <v>800</v>
@@ -9093,7 +9093,7 @@
         <v>53</v>
       </c>
       <c r="C128" s="68" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D128" s="69" t="s">
         <v>801</v>
@@ -9110,7 +9110,7 @@
         <v>49</v>
       </c>
       <c r="C129" s="51" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="D129" s="17" t="s">
         <v>802</v>
@@ -9127,7 +9127,7 @@
         <v>178</v>
       </c>
       <c r="C130" s="53" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="D130" s="20" t="s">
         <v>276</v>
@@ -9144,7 +9144,7 @@
         <v>72</v>
       </c>
       <c r="C131" s="51" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="D131" s="17" t="s">
         <v>483</v>
@@ -9161,7 +9161,7 @@
         <v>177</v>
       </c>
       <c r="C132" s="68" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="D132" s="69" t="s">
         <v>803</v>
@@ -9178,7 +9178,7 @@
         <v>12</v>
       </c>
       <c r="C133" s="48" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>804</v>
@@ -9195,7 +9195,7 @@
         <v>806</v>
       </c>
       <c r="C134" s="53" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D134" s="20" t="s">
         <v>807</v>
@@ -9212,7 +9212,7 @@
         <v>77</v>
       </c>
       <c r="C135" s="51" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="D135" s="17" t="s">
         <v>809</v>
@@ -9229,7 +9229,7 @@
         <v>811</v>
       </c>
       <c r="C136" s="72" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="D136" s="73" t="s">
         <v>812</v>
@@ -9246,7 +9246,7 @@
         <v>55</v>
       </c>
       <c r="C137" s="51" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="D137" s="17" t="s">
         <v>815</v>
@@ -9263,7 +9263,7 @@
         <v>75</v>
       </c>
       <c r="C138" s="57" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="D138" s="30" t="s">
         <v>817</v>
@@ -9280,7 +9280,7 @@
         <v>36</v>
       </c>
       <c r="C139" s="51" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D139" s="17" t="s">
         <v>819</v>
@@ -9297,7 +9297,7 @@
         <v>642</v>
       </c>
       <c r="C140" s="68" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="D140" s="69" t="s">
         <v>821</v>
@@ -9314,7 +9314,7 @@
         <v>824</v>
       </c>
       <c r="C141" s="51" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="D141" s="17" t="s">
         <v>825</v>
@@ -9331,7 +9331,7 @@
         <v>68</v>
       </c>
       <c r="C142" s="57" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="D142" s="30" t="s">
         <v>826</v>
@@ -9348,7 +9348,7 @@
         <v>228</v>
       </c>
       <c r="C143" s="51" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="D143" s="17" t="s">
         <v>827</v>
@@ -9365,7 +9365,7 @@
         <v>829</v>
       </c>
       <c r="C144" s="68" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="D144" s="67" t="s">
         <v>830</v>
@@ -9382,7 +9382,7 @@
         <v>82</v>
       </c>
       <c r="C145" s="51" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="D145" s="17" t="s">
         <v>832</v>
@@ -9399,7 +9399,7 @@
         <v>545</v>
       </c>
       <c r="C146" s="49" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="D146" s="12" t="s">
         <v>546</v>
@@ -9416,7 +9416,7 @@
         <v>834</v>
       </c>
       <c r="C147" s="51" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="D147" s="17" t="s">
         <v>835</v>
@@ -9433,7 +9433,7 @@
         <v>75</v>
       </c>
       <c r="C148" s="68" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="D148" s="69" t="s">
         <v>837</v>
@@ -9450,7 +9450,7 @@
         <v>76</v>
       </c>
       <c r="C149" s="51" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="D149" s="17" t="s">
         <v>839</v>
@@ -9467,7 +9467,7 @@
         <v>840</v>
       </c>
       <c r="C150" s="53" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D150" s="20" t="s">
         <v>841</v>
@@ -9484,7 +9484,7 @@
         <v>106</v>
       </c>
       <c r="C151" s="48" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="D151" s="9" t="s">
         <v>467</v>
@@ -9501,7 +9501,7 @@
         <v>14</v>
       </c>
       <c r="C152" s="68" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="D152" s="69" t="s">
         <v>843</v>
@@ -9518,7 +9518,7 @@
         <v>49</v>
       </c>
       <c r="C153" s="51" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="D153" s="17" t="s">
         <v>846</v>
@@ -9535,7 +9535,7 @@
         <v>379</v>
       </c>
       <c r="C154" s="49" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="D154" s="12" t="s">
         <v>847</v>
@@ -9552,7 +9552,7 @@
         <v>62</v>
       </c>
       <c r="C155" s="48" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D155" s="9" t="s">
         <v>848</v>
@@ -9569,7 +9569,7 @@
         <v>27</v>
       </c>
       <c r="C156" s="49" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="D156" s="12" t="s">
         <v>849</v>
@@ -9586,7 +9586,7 @@
         <v>37</v>
       </c>
       <c r="C157" s="51" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="D157" s="17" t="s">
         <v>851</v>
@@ -9603,7 +9603,7 @@
         <v>3</v>
       </c>
       <c r="C158" s="53" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="D158" s="20" t="s">
         <v>853</v>
@@ -9620,7 +9620,7 @@
         <v>856</v>
       </c>
       <c r="C159" s="51" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="D159" s="17" t="s">
         <v>857</v>
@@ -9637,7 +9637,7 @@
         <v>98</v>
       </c>
       <c r="C160" s="68" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="D160" s="69" t="s">
         <v>301</v>
@@ -9648,16 +9648,16 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="67" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="B161" s="67" t="s">
         <v>107</v>
       </c>
       <c r="C161" s="68" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D161" s="69" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="E161" s="18" t="s">
         <v>302</v>
@@ -9671,7 +9671,7 @@
         <v>49</v>
       </c>
       <c r="C162" s="53" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="D162" s="20" t="s">
         <v>859</v>
@@ -9688,7 +9688,7 @@
         <v>39</v>
       </c>
       <c r="C163" s="49" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="D163" s="12" t="s">
         <v>862</v>
@@ -9705,7 +9705,7 @@
         <v>71</v>
       </c>
       <c r="C164" s="68" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="D164" s="69" t="s">
         <v>863</v>
@@ -9722,7 +9722,7 @@
         <v>100</v>
       </c>
       <c r="C165" s="51" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D165" s="17" t="s">
         <v>864</v>
@@ -9739,7 +9739,7 @@
         <v>865</v>
       </c>
       <c r="C166" s="53" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D166" s="20" t="s">
         <v>866</v>
@@ -9756,7 +9756,7 @@
         <v>49</v>
       </c>
       <c r="C167" s="51" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="D167" s="16" t="s">
         <v>867</v>
@@ -9773,7 +9773,7 @@
         <v>27</v>
       </c>
       <c r="C168" s="48" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="D168" s="9" t="s">
         <v>868</v>
@@ -9790,7 +9790,7 @@
         <v>106</v>
       </c>
       <c r="C169" s="49" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="D169" s="36" t="s">
         <v>870</v>
@@ -9807,7 +9807,7 @@
         <v>28</v>
       </c>
       <c r="C170" s="53" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D170" s="20" t="s">
         <v>872</v>
@@ -9824,7 +9824,7 @@
         <v>875</v>
       </c>
       <c r="C171" s="51" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D171" s="17" t="s">
         <v>876</v>
@@ -9841,7 +9841,7 @@
         <v>14</v>
       </c>
       <c r="C172" s="68" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="D172" s="69" t="s">
         <v>877</v>
@@ -9858,7 +9858,7 @@
         <v>316</v>
       </c>
       <c r="C173" s="49" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="D173" s="12" t="s">
         <v>317</v>
@@ -9875,7 +9875,7 @@
         <v>879</v>
       </c>
       <c r="C174" s="53" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D174" s="20" t="s">
         <v>880</v>
@@ -9892,7 +9892,7 @@
         <v>106</v>
       </c>
       <c r="C175" s="51" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="D175" s="16" t="s">
         <v>883</v>
@@ -9909,7 +9909,7 @@
         <v>222</v>
       </c>
       <c r="C176" s="68" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="D176" s="69" t="s">
         <v>885</v>
@@ -9926,7 +9926,7 @@
         <v>887</v>
       </c>
       <c r="C177" s="51" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="D177" s="17" t="s">
         <v>888</v>
@@ -9936,34 +9936,34 @@
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="19" t="s">
-        <v>889</v>
-      </c>
-      <c r="B178" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C178" s="53" t="s">
-        <v>1591</v>
-      </c>
-      <c r="D178" s="20" t="s">
-        <v>890</v>
+      <c r="A178" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B178" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C178" s="51" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D178" s="17" t="s">
+        <v>892</v>
       </c>
       <c r="E178" s="15" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="B179" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C179" s="51" t="s">
-        <v>1592</v>
-      </c>
-      <c r="D179" s="17" t="s">
-        <v>892</v>
+      <c r="A179" s="87" t="s">
+        <v>889</v>
+      </c>
+      <c r="B179" s="87" t="s">
+        <v>42</v>
+      </c>
+      <c r="C179" s="88" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D179" s="89" t="s">
+        <v>890</v>
       </c>
       <c r="E179" s="18" t="s">
         <v>891</v>
@@ -9977,7 +9977,7 @@
         <v>39</v>
       </c>
       <c r="C180" s="68" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="D180" s="69" t="s">
         <v>893</v>
@@ -9994,7 +9994,7 @@
         <v>54</v>
       </c>
       <c r="C181" s="51" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="D181" s="17" t="s">
         <v>896</v>
@@ -10011,7 +10011,7 @@
         <v>197</v>
       </c>
       <c r="C182" s="53" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="D182" s="20" t="s">
         <v>898</v>
@@ -10028,7 +10028,7 @@
         <v>27</v>
       </c>
       <c r="C183" s="51" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="D183" s="16" t="s">
         <v>900</v>
@@ -10045,7 +10045,7 @@
         <v>152</v>
       </c>
       <c r="C184" s="48" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="D184" s="9" t="s">
         <v>502</v>
@@ -10062,7 +10062,7 @@
         <v>480</v>
       </c>
       <c r="C185" s="49" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D185" s="12" t="s">
         <v>901</v>
@@ -10079,7 +10079,7 @@
         <v>223</v>
       </c>
       <c r="C186" s="53" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="D186" s="20" t="s">
         <v>902</v>
@@ -10096,7 +10096,7 @@
         <v>28</v>
       </c>
       <c r="C187" s="51" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="D187" s="17" t="s">
         <v>903</v>
@@ -10113,7 +10113,7 @@
         <v>280</v>
       </c>
       <c r="C188" s="48" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="D188" s="9" t="s">
         <v>281</v>
@@ -10130,7 +10130,7 @@
         <v>567</v>
       </c>
       <c r="C189" s="51" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="D189" s="17" t="s">
         <v>904</v>
@@ -10147,7 +10147,7 @@
         <v>36</v>
       </c>
       <c r="C190" s="48" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="D190" s="9" t="s">
         <v>905</v>
@@ -10164,7 +10164,7 @@
         <v>201</v>
       </c>
       <c r="C191" s="49" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="D191" s="12" t="s">
         <v>906</v>
@@ -10181,7 +10181,7 @@
         <v>71</v>
       </c>
       <c r="C192" s="68" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="D192" s="69" t="s">
         <v>907</v>
@@ -10198,7 +10198,7 @@
         <v>64</v>
       </c>
       <c r="C193" s="51" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="D193" s="17" t="s">
         <v>908</v>
@@ -10215,7 +10215,7 @@
         <v>53</v>
       </c>
       <c r="C194" s="53" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="D194" s="20" t="s">
         <v>909</v>
@@ -10232,7 +10232,7 @@
         <v>911</v>
       </c>
       <c r="C195" s="51" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="D195" s="17" t="s">
         <v>912</v>
@@ -10249,7 +10249,7 @@
         <v>27</v>
       </c>
       <c r="C196" s="68" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="D196" s="69" t="s">
         <v>913</v>
@@ -10266,7 +10266,7 @@
         <v>91</v>
       </c>
       <c r="C197" s="51" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="D197" s="17" t="s">
         <v>915</v>
@@ -10283,7 +10283,7 @@
         <v>52</v>
       </c>
       <c r="C198" s="48" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="D198" s="9" t="s">
         <v>916</v>
@@ -10300,7 +10300,7 @@
         <v>4</v>
       </c>
       <c r="C199" s="51" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D199" s="17" t="s">
         <v>917</v>
@@ -10317,7 +10317,7 @@
         <v>166</v>
       </c>
       <c r="C200" s="68" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="D200" s="69" t="s">
         <v>918</v>
@@ -10334,7 +10334,7 @@
         <v>39</v>
       </c>
       <c r="C201" s="49" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="D201" s="12" t="s">
         <v>919</v>
@@ -10351,7 +10351,7 @@
         <v>19</v>
       </c>
       <c r="C202" s="48" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="D202" s="9" t="s">
         <v>920</v>
@@ -10368,7 +10368,7 @@
         <v>150</v>
       </c>
       <c r="C203" s="51" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D203" s="17" t="s">
         <v>921</v>
@@ -10385,7 +10385,7 @@
         <v>39</v>
       </c>
       <c r="C204" s="68" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="D204" s="69" t="s">
         <v>922</v>
@@ -10402,7 +10402,7 @@
         <v>417</v>
       </c>
       <c r="C205" s="51" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="D205" s="17" t="s">
         <v>923</v>
@@ -10419,7 +10419,7 @@
         <v>925</v>
       </c>
       <c r="C206" s="53" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="D206" s="20" t="s">
         <v>926</v>
@@ -10436,7 +10436,7 @@
         <v>64</v>
       </c>
       <c r="C207" s="51" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D207" s="16" t="s">
         <v>927</v>
@@ -10453,7 +10453,7 @@
         <v>137</v>
       </c>
       <c r="C208" s="48" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="D208" s="9" t="s">
         <v>928</v>
@@ -10470,7 +10470,7 @@
         <v>930</v>
       </c>
       <c r="C209" s="51" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="D209" s="17" t="s">
         <v>931</v>
@@ -10487,7 +10487,7 @@
         <v>3</v>
       </c>
       <c r="C210" s="53" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="D210" s="20" t="s">
         <v>932</v>
@@ -10504,7 +10504,7 @@
         <v>935</v>
       </c>
       <c r="C211" s="51" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="D211" s="17" t="s">
         <v>936</v>
@@ -10521,7 +10521,7 @@
         <v>72</v>
       </c>
       <c r="C212" s="48" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="D212" s="9" t="s">
         <v>937</v>
@@ -10538,7 +10538,7 @@
         <v>36</v>
       </c>
       <c r="C213" s="51" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="D213" s="17" t="s">
         <v>938</v>
@@ -10555,7 +10555,7 @@
         <v>166</v>
       </c>
       <c r="C214" s="48" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D214" s="9">
         <v>66847902</v>
@@ -10572,7 +10572,7 @@
         <v>49</v>
       </c>
       <c r="C215" s="49" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="D215" s="12" t="s">
         <v>945</v>
@@ -10589,7 +10589,7 @@
         <v>946</v>
       </c>
       <c r="C216" s="77" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="D216" s="78" t="s">
         <v>947</v>
@@ -10606,7 +10606,7 @@
         <v>949</v>
       </c>
       <c r="C217" s="59" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="D217" s="39" t="s">
         <v>950</v>
@@ -10623,7 +10623,7 @@
         <v>63</v>
       </c>
       <c r="C218" s="48" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="D218" s="9" t="s">
         <v>951</v>
@@ -10640,7 +10640,7 @@
         <v>208</v>
       </c>
       <c r="C219" s="49" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="D219" s="12" t="s">
         <v>952</v>
@@ -10657,7 +10657,7 @@
         <v>954</v>
       </c>
       <c r="C220" s="68" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="D220" s="69" t="s">
         <v>955</v>
@@ -10674,7 +10674,7 @@
         <v>30</v>
       </c>
       <c r="C221" s="51" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="D221" s="17" t="s">
         <v>956</v>
@@ -10691,7 +10691,7 @@
         <v>28</v>
       </c>
       <c r="C222" s="53" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="D222" s="20" t="s">
         <v>958</v>
@@ -10708,7 +10708,7 @@
         <v>777</v>
       </c>
       <c r="C223" s="51" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="D223" s="17" t="s">
         <v>960</v>
@@ -10725,7 +10725,7 @@
         <v>18</v>
       </c>
       <c r="C224" s="48" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="D224" s="9" t="s">
         <v>961</v>
@@ -10742,7 +10742,7 @@
         <v>106</v>
       </c>
       <c r="C225" s="49" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="D225" s="12" t="s">
         <v>406</v>
@@ -10759,7 +10759,7 @@
         <v>62</v>
       </c>
       <c r="C226" s="85" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="D226" s="86" t="s">
         <v>1303</v>
@@ -10776,7 +10776,7 @@
         <v>128</v>
       </c>
       <c r="C227" s="51" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="D227" s="17" t="s">
         <v>965</v>
@@ -10793,7 +10793,7 @@
         <v>58</v>
       </c>
       <c r="C228" s="48" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="D228" s="9" t="s">
         <v>352</v>
@@ -10810,7 +10810,7 @@
         <v>123</v>
       </c>
       <c r="C229" s="49" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="D229" s="36" t="s">
         <v>967</v>
@@ -10827,7 +10827,7 @@
         <v>91</v>
       </c>
       <c r="C230" s="48" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="D230" s="9" t="s">
         <v>968</v>
@@ -10844,7 +10844,7 @@
         <v>40</v>
       </c>
       <c r="C231" s="51" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="D231" s="17" t="s">
         <v>969</v>
@@ -10861,7 +10861,7 @@
         <v>6</v>
       </c>
       <c r="C232" s="48" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="D232" s="9" t="s">
         <v>350</v>
@@ -10878,7 +10878,7 @@
         <v>6</v>
       </c>
       <c r="C233" s="51" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="D233" s="17" t="s">
         <v>970</v>
@@ -10895,7 +10895,7 @@
         <v>72</v>
       </c>
       <c r="C234" s="53" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="D234" s="20" t="s">
         <v>972</v>
@@ -10912,7 +10912,7 @@
         <v>91</v>
       </c>
       <c r="C235" s="51" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="D235" s="17" t="s">
         <v>975</v>
@@ -10929,7 +10929,7 @@
         <v>135</v>
       </c>
       <c r="C236" s="48" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="D236" s="9" t="s">
         <v>976</v>
@@ -10946,7 +10946,7 @@
         <v>123</v>
       </c>
       <c r="C237" s="49" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="D237" s="12" t="s">
         <v>977</v>
@@ -10963,7 +10963,7 @@
         <v>979</v>
       </c>
       <c r="C238" s="53" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="D238" s="20" t="s">
         <v>980</v>
@@ -10980,7 +10980,7 @@
         <v>983</v>
       </c>
       <c r="C239" s="51" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="D239" s="17" t="s">
         <v>984</v>
@@ -10997,7 +10997,7 @@
         <v>777</v>
       </c>
       <c r="C240" s="68" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="D240" s="69" t="s">
         <v>985</v>
@@ -11014,7 +11014,7 @@
         <v>988</v>
       </c>
       <c r="C241" s="51" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="D241" s="17" t="s">
         <v>989</v>
@@ -11031,7 +11031,7 @@
         <v>33</v>
       </c>
       <c r="C242" s="48" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="D242" s="9" t="s">
         <v>990</v>
@@ -11048,7 +11048,7 @@
         <v>106</v>
       </c>
       <c r="C243" s="51" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="D243" s="17" t="s">
         <v>991</v>
@@ -11065,7 +11065,7 @@
         <v>993</v>
       </c>
       <c r="C244" s="68" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="D244" s="69" t="s">
         <v>994</v>
@@ -11082,7 +11082,7 @@
         <v>71</v>
       </c>
       <c r="C245" s="51" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D245" s="17" t="s">
         <v>996</v>
@@ -11099,7 +11099,7 @@
         <v>997</v>
       </c>
       <c r="C246" s="53" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="D246" s="20" t="s">
         <v>998</v>
@@ -11116,7 +11116,7 @@
         <v>39</v>
       </c>
       <c r="C247" s="51" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="D247" s="17" t="s">
         <v>999</v>
@@ -11133,7 +11133,7 @@
         <v>134</v>
       </c>
       <c r="C248" s="48" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D248" s="9" t="s">
         <v>1000</v>
@@ -11150,7 +11150,7 @@
         <v>26</v>
       </c>
       <c r="C249" s="51" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="D249" s="17" t="s">
         <v>334</v>
@@ -11167,7 +11167,7 @@
         <v>232</v>
       </c>
       <c r="C250" s="53" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="D250" s="20" t="s">
         <v>1001</v>
@@ -11184,7 +11184,7 @@
         <v>22</v>
       </c>
       <c r="C251" s="51" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="D251" s="17" t="s">
         <v>1002</v>
@@ -11201,7 +11201,7 @@
         <v>42</v>
       </c>
       <c r="C252" s="48" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="D252" s="9" t="s">
         <v>403</v>
@@ -11218,7 +11218,7 @@
         <v>245</v>
       </c>
       <c r="C253" s="51" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="D253" s="17" t="s">
         <v>1003</v>
@@ -11235,7 +11235,7 @@
         <v>80</v>
       </c>
       <c r="C254" s="48" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D254" s="9" t="s">
         <v>1004</v>
@@ -11252,7 +11252,7 @@
         <v>32</v>
       </c>
       <c r="C255" s="51" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="D255" s="17" t="s">
         <v>1005</v>
@@ -11270,7 +11270,7 @@
       </c>
       <c r="C256" s="68"/>
       <c r="D256" s="69" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="E256" s="15" t="s">
         <v>616</v>
@@ -11284,7 +11284,7 @@
         <v>146</v>
       </c>
       <c r="C257" s="49" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="D257" s="12" t="s">
         <v>1006</v>
@@ -11301,7 +11301,7 @@
         <v>91</v>
       </c>
       <c r="C258" s="48" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="D258" s="9" t="s">
         <v>1007</v>
@@ -11318,7 +11318,7 @@
         <v>68</v>
       </c>
       <c r="C259" s="51" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="D259" s="17" t="s">
         <v>1008</v>
@@ -11335,7 +11335,7 @@
         <v>52</v>
       </c>
       <c r="C260" s="48" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="D260" s="9" t="s">
         <v>1009</v>
@@ -11352,7 +11352,7 @@
         <v>154</v>
       </c>
       <c r="C261" s="49" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="D261" s="12" t="s">
         <v>1010</v>
@@ -11369,7 +11369,7 @@
         <v>1012</v>
       </c>
       <c r="C262" s="53" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="D262" s="20" t="s">
         <v>1013</v>
@@ -11386,7 +11386,7 @@
         <v>201</v>
       </c>
       <c r="C263" s="51" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="D263" s="16" t="s">
         <v>1015</v>
@@ -11403,7 +11403,7 @@
         <v>160</v>
       </c>
       <c r="C264" s="48" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="D264" s="9" t="s">
         <v>1016</v>
@@ -11420,7 +11420,7 @@
         <v>52</v>
       </c>
       <c r="C265" s="51" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="D265" s="17" t="s">
         <v>1017</v>
@@ -11437,7 +11437,7 @@
         <v>181</v>
       </c>
       <c r="C266" s="48" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="D266" s="9" t="s">
         <v>1018</v>
@@ -11448,16 +11448,16 @@
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="16" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B267" s="16" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C267" s="51" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D267" s="17" t="s">
         <v>1978</v>
-      </c>
-      <c r="B267" s="16" t="s">
-        <v>1979</v>
-      </c>
-      <c r="C267" s="51" t="s">
-        <v>1980</v>
-      </c>
-      <c r="D267" s="17" t="s">
-        <v>1981</v>
       </c>
       <c r="E267" s="18" t="s">
         <v>309</v>
@@ -11471,7 +11471,7 @@
         <v>198</v>
       </c>
       <c r="C268" s="48" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="D268" s="9" t="s">
         <v>535</v>
@@ -11488,7 +11488,7 @@
         <v>81</v>
       </c>
       <c r="C269" s="51" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="D269" s="17" t="s">
         <v>1021</v>
@@ -11505,7 +11505,7 @@
         <v>1023</v>
       </c>
       <c r="C270" s="48" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="D270" s="9" t="s">
         <v>1024</v>
@@ -11522,7 +11522,7 @@
         <v>537</v>
       </c>
       <c r="C271" s="49" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="D271" s="12" t="s">
         <v>1025</v>
@@ -11539,7 +11539,7 @@
         <v>33</v>
       </c>
       <c r="C272" s="68" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="D272" s="69" t="s">
         <v>1027</v>
@@ -11556,7 +11556,7 @@
         <v>526</v>
       </c>
       <c r="C273" s="49" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D273" s="12" t="s">
         <v>1028</v>
@@ -11573,7 +11573,7 @@
         <v>436</v>
       </c>
       <c r="C274" s="48" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="D274" s="9" t="s">
         <v>1029</v>
@@ -11590,7 +11590,7 @@
         <v>1031</v>
       </c>
       <c r="C275" s="51" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="D275" s="17" t="s">
         <v>1032</v>
@@ -11607,7 +11607,7 @@
         <v>1034</v>
       </c>
       <c r="C276" s="48" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="D276" s="35" t="s">
         <v>1035</v>
@@ -11624,7 +11624,7 @@
         <v>1038</v>
       </c>
       <c r="C277" s="51" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="D277" s="17" t="s">
         <v>1039</v>
@@ -11641,7 +11641,7 @@
         <v>60</v>
       </c>
       <c r="C278" s="48" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="D278" s="9" t="s">
         <v>325</v>
@@ -11658,7 +11658,7 @@
         <v>829</v>
       </c>
       <c r="C279" s="49" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="D279" s="12" t="s">
         <v>1041</v>
@@ -11675,7 +11675,7 @@
         <v>121</v>
       </c>
       <c r="C280" s="68" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="D280" s="69" t="s">
         <v>1042</v>
@@ -11692,7 +11692,7 @@
         <v>40</v>
       </c>
       <c r="C281" s="51" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="D281" s="17" t="s">
         <v>1043</v>
@@ -11709,7 +11709,7 @@
         <v>33</v>
       </c>
       <c r="C282" s="48" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="D282" s="9" t="s">
         <v>1044</v>
@@ -11726,7 +11726,7 @@
         <v>39</v>
       </c>
       <c r="C283" s="51" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="D283" s="17" t="s">
         <v>1045</v>
@@ -11743,7 +11743,7 @@
         <v>6</v>
       </c>
       <c r="C284" s="48" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D284" s="9" t="s">
         <v>552</v>
@@ -11760,7 +11760,7 @@
         <v>107</v>
       </c>
       <c r="C285" s="51" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="D285" s="17" t="s">
         <v>328</v>
@@ -11777,7 +11777,7 @@
         <v>98</v>
       </c>
       <c r="C286" s="48" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="D286" s="9" t="s">
         <v>471</v>
@@ -11794,7 +11794,7 @@
         <v>62</v>
       </c>
       <c r="C287" s="49" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="D287" s="12" t="s">
         <v>1046</v>
@@ -11811,7 +11811,7 @@
         <v>39</v>
       </c>
       <c r="C288" s="48" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="D288" s="9" t="s">
         <v>1047</v>
@@ -11828,7 +11828,7 @@
         <v>33</v>
       </c>
       <c r="C289" s="49" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="D289" s="12" t="s">
         <v>1049</v>
@@ -11845,7 +11845,7 @@
         <v>1051</v>
       </c>
       <c r="C290" s="53" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="D290" s="20" t="s">
         <v>1052</v>
@@ -11862,7 +11862,7 @@
         <v>1054</v>
       </c>
       <c r="C291" s="51" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="D291" s="16" t="s">
         <v>1055</v>
@@ -11879,7 +11879,7 @@
         <v>19</v>
       </c>
       <c r="C292" s="48" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="D292" s="9" t="s">
         <v>1056</v>
@@ -11896,7 +11896,7 @@
         <v>74</v>
       </c>
       <c r="C293" s="51" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D293" s="17" t="s">
         <v>1057</v>
@@ -11913,7 +11913,7 @@
         <v>60</v>
       </c>
       <c r="C294" s="53" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="D294" s="20" t="s">
         <v>1059</v>
@@ -11930,7 +11930,7 @@
         <v>1062</v>
       </c>
       <c r="C295" s="51" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="D295" s="17" t="s">
         <v>1063</v>
@@ -11947,7 +11947,7 @@
         <v>64</v>
       </c>
       <c r="C296" s="48" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="D296" s="9" t="s">
         <v>1064</v>
@@ -11964,7 +11964,7 @@
         <v>59</v>
       </c>
       <c r="C297" s="49" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="D297" s="12" t="s">
         <v>1065</v>
@@ -11981,7 +11981,7 @@
         <v>107</v>
       </c>
       <c r="C298" s="53" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="D298" s="20" t="s">
         <v>1066</v>
@@ -11998,7 +11998,7 @@
         <v>121</v>
       </c>
       <c r="C299" s="51" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="D299" s="17" t="s">
         <v>1068</v>
@@ -12015,7 +12015,7 @@
         <v>52</v>
       </c>
       <c r="C300" s="68" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="D300" s="69" t="s">
         <v>1069</v>
@@ -12032,7 +12032,7 @@
         <v>44</v>
       </c>
       <c r="C301" s="51" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="D301" s="17" t="s">
         <v>1071</v>
@@ -12049,7 +12049,7 @@
         <v>543</v>
       </c>
       <c r="C302" s="48" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="D302" s="9" t="s">
         <v>1072</v>
@@ -12066,7 +12066,7 @@
         <v>26</v>
       </c>
       <c r="C303" s="51" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="D303" s="17" t="s">
         <v>1073</v>
@@ -12083,7 +12083,7 @@
         <v>174</v>
       </c>
       <c r="C304" s="48" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="D304" s="9" t="s">
         <v>1074</v>
@@ -12100,7 +12100,7 @@
         <v>168</v>
       </c>
       <c r="C305" s="49" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="D305" s="12" t="s">
         <v>578</v>
@@ -12117,7 +12117,7 @@
         <v>15</v>
       </c>
       <c r="C306" s="53" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="D306" s="20" t="s">
         <v>1076</v>
@@ -12134,7 +12134,7 @@
         <v>231</v>
       </c>
       <c r="C307" s="51" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="D307" s="17" t="s">
         <v>1077</v>
@@ -12151,7 +12151,7 @@
         <v>68</v>
       </c>
       <c r="C308" s="68" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="D308" s="69" t="s">
         <v>1079</v>
@@ -12168,7 +12168,7 @@
         <v>1081</v>
       </c>
       <c r="C309" s="51" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="D309" s="17" t="s">
         <v>1082</v>
@@ -12185,7 +12185,7 @@
         <v>57</v>
       </c>
       <c r="C310" s="48" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="D310" s="9" t="s">
         <v>1083</v>
@@ -12202,7 +12202,7 @@
         <v>76</v>
       </c>
       <c r="C311" s="51" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="D311" s="17" t="s">
         <v>347</v>
@@ -12219,7 +12219,7 @@
         <v>102</v>
       </c>
       <c r="C312" s="48" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="D312" s="9" t="s">
         <v>500</v>
@@ -12236,7 +12236,7 @@
         <v>1085</v>
       </c>
       <c r="C313" s="49" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="D313" s="40" t="s">
         <v>1086</v>
@@ -12253,7 +12253,7 @@
         <v>1088</v>
       </c>
       <c r="C314" s="57" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="D314" s="30" t="s">
         <v>1089</v>
@@ -12270,7 +12270,7 @@
         <v>40</v>
       </c>
       <c r="C315" s="51" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="D315" s="17" t="s">
         <v>1092</v>
@@ -12287,7 +12287,7 @@
         <v>107</v>
       </c>
       <c r="C316" s="48" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="D316" s="9" t="s">
         <v>1093</v>
@@ -12304,7 +12304,7 @@
         <v>17</v>
       </c>
       <c r="C317" s="49" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="D317" s="12" t="s">
         <v>1094</v>
@@ -12321,7 +12321,7 @@
         <v>1096</v>
       </c>
       <c r="C318" s="53" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="D318" s="20" t="s">
         <v>1097</v>
@@ -12338,7 +12338,7 @@
         <v>52</v>
       </c>
       <c r="C319" s="49" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="D319" s="36" t="s">
         <v>1100</v>
@@ -12355,7 +12355,7 @@
         <v>54</v>
       </c>
       <c r="C320" s="48" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="D320" s="9" t="s">
         <v>1101</v>
@@ -12372,7 +12372,7 @@
         <v>44</v>
       </c>
       <c r="C321" s="49" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="D321" s="12" t="s">
         <v>1102</v>
@@ -12389,7 +12389,7 @@
         <v>166</v>
       </c>
       <c r="C322" s="48" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="D322" s="9" t="s">
         <v>1103</v>
@@ -12406,7 +12406,7 @@
         <v>27</v>
       </c>
       <c r="C323" s="49" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="D323" s="12" t="s">
         <v>1104</v>
@@ -12423,7 +12423,7 @@
         <v>153</v>
       </c>
       <c r="C324" s="48" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="D324" s="9" t="s">
         <v>1105</v>
@@ -12440,7 +12440,7 @@
         <v>71</v>
       </c>
       <c r="C325" s="49" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="D325" s="12" t="s">
         <v>1107</v>
@@ -12457,7 +12457,7 @@
         <v>141</v>
       </c>
       <c r="C326" s="48" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="D326" s="9" t="s">
         <v>1108</v>
@@ -12474,7 +12474,7 @@
         <v>142</v>
       </c>
       <c r="C327" s="51" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="D327" s="17" t="s">
         <v>1109</v>
@@ -12491,7 +12491,7 @@
         <v>91</v>
       </c>
       <c r="C328" s="48" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="D328" s="9" t="s">
         <v>1110</v>
@@ -12508,7 +12508,7 @@
         <v>10</v>
       </c>
       <c r="C329" s="49" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="D329" s="12" t="s">
         <v>1111</v>
@@ -12525,7 +12525,7 @@
         <v>85</v>
       </c>
       <c r="C330" s="48" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="D330" s="9" t="s">
         <v>1112</v>
@@ -12542,7 +12542,7 @@
         <v>197</v>
       </c>
       <c r="C331" s="49" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="D331" s="12" t="s">
         <v>573</v>
@@ -12559,7 +12559,7 @@
         <v>135</v>
       </c>
       <c r="C332" s="48" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="D332" s="9" t="s">
         <v>1113</v>
@@ -12576,7 +12576,7 @@
         <v>123</v>
       </c>
       <c r="C333" s="49" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="D333" s="12" t="s">
         <v>1115</v>
@@ -12593,7 +12593,7 @@
         <v>273</v>
       </c>
       <c r="C334" s="48" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="D334" s="9" t="s">
         <v>274</v>
@@ -12610,7 +12610,7 @@
         <v>117</v>
       </c>
       <c r="C335" s="49" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="D335" s="12" t="s">
         <v>1116</v>
@@ -12627,7 +12627,7 @@
         <v>19</v>
       </c>
       <c r="C336" s="68" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="D336" s="69" t="s">
         <v>1118</v>
@@ -12644,7 +12644,7 @@
         <v>1119</v>
       </c>
       <c r="C337" s="51" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="D337" s="16" t="s">
         <v>1120</v>
@@ -12661,7 +12661,7 @@
         <v>28</v>
       </c>
       <c r="C338" s="48" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="D338" s="9" t="s">
         <v>447</v>
@@ -12678,7 +12678,7 @@
         <v>41</v>
       </c>
       <c r="C339" s="51" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="D339" s="17" t="s">
         <v>1122</v>
@@ -12695,7 +12695,7 @@
         <v>1123</v>
       </c>
       <c r="C340" s="68" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="D340" s="69" t="s">
         <v>1124</v>
@@ -12712,7 +12712,7 @@
         <v>1126</v>
       </c>
       <c r="C341" s="51" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="D341" s="17" t="s">
         <v>1127</v>
@@ -12729,7 +12729,7 @@
         <v>221</v>
       </c>
       <c r="C342" s="48" t="s">
-        <v>1758</v>
+        <v>1756</v>
       </c>
       <c r="D342" s="9" t="s">
         <v>248</v>
@@ -12746,7 +12746,7 @@
         <v>194</v>
       </c>
       <c r="C343" s="49" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="D343" s="12" t="s">
         <v>1128</v>
@@ -12763,7 +12763,7 @@
         <v>181</v>
       </c>
       <c r="C344" s="48" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="D344" s="9" t="s">
         <v>339</v>
@@ -12780,7 +12780,7 @@
         <v>75</v>
       </c>
       <c r="C345" s="51" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="D345" s="17" t="s">
         <v>1129</v>
@@ -12797,7 +12797,7 @@
         <v>152</v>
       </c>
       <c r="C346" s="48" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="D346" s="9" t="s">
         <v>451</v>
@@ -12814,7 +12814,7 @@
         <v>166</v>
       </c>
       <c r="C347" s="51" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="D347" s="17" t="s">
         <v>1131</v>
@@ -12831,10 +12831,10 @@
         <v>3</v>
       </c>
       <c r="C348" s="68" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="D348" s="69" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="E348" s="15" t="s">
         <v>1132</v>
@@ -12848,7 +12848,7 @@
         <v>15</v>
       </c>
       <c r="C349" s="51" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="D349" s="17" t="s">
         <v>1134</v>
@@ -12865,7 +12865,7 @@
         <v>86</v>
       </c>
       <c r="C350" s="53" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="D350" s="20" t="s">
         <v>1136</v>
@@ -12882,7 +12882,7 @@
         <v>1139</v>
       </c>
       <c r="C351" s="51" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="D351" s="16" t="s">
         <v>1140</v>
@@ -12899,7 +12899,7 @@
         <v>68</v>
       </c>
       <c r="C352" s="68" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="D352" s="69" t="s">
         <v>1142</v>
@@ -12916,7 +12916,7 @@
         <v>1119</v>
       </c>
       <c r="C353" s="51" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="D353" s="17" t="s">
         <v>1145</v>
@@ -12933,7 +12933,7 @@
         <v>1147</v>
       </c>
       <c r="C354" s="48" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="D354" s="9" t="s">
         <v>1148</v>
@@ -12950,7 +12950,7 @@
         <v>64</v>
       </c>
       <c r="C355" s="51" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="D355" s="17" t="s">
         <v>1149</v>
@@ -12967,13 +12967,13 @@
         <v>15</v>
       </c>
       <c r="C356" s="48" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="D356" s="9" t="s">
         <v>1150</v>
       </c>
       <c r="E356" s="15" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -12984,13 +12984,13 @@
         <v>122</v>
       </c>
       <c r="C357" s="51" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="D357" s="17" t="s">
         <v>1151</v>
       </c>
       <c r="E357" s="18" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -13001,13 +13001,13 @@
         <v>1119</v>
       </c>
       <c r="C358" s="53" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="D358" s="20" t="s">
         <v>1152</v>
       </c>
       <c r="E358" s="15" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -13018,13 +13018,13 @@
         <v>123</v>
       </c>
       <c r="C359" s="51" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="D359" s="17" t="s">
         <v>1153</v>
       </c>
       <c r="E359" s="18" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -13035,7 +13035,7 @@
         <v>37</v>
       </c>
       <c r="C360" s="68" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="D360" s="69" t="s">
         <v>1154</v>
@@ -13052,7 +13052,7 @@
         <v>55</v>
       </c>
       <c r="C361" s="49" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="D361" s="12" t="s">
         <v>1155</v>
@@ -13069,7 +13069,7 @@
         <v>83</v>
       </c>
       <c r="C362" s="53" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="D362" s="20" t="s">
         <v>569</v>
@@ -13086,7 +13086,7 @@
         <v>74</v>
       </c>
       <c r="C363" s="49" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="D363" s="36" t="s">
         <v>1157</v>
@@ -13103,7 +13103,7 @@
         <v>41</v>
       </c>
       <c r="C364" s="68" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="D364" s="69" t="s">
         <v>1159</v>
@@ -13120,7 +13120,7 @@
         <v>1126</v>
       </c>
       <c r="C365" s="51" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="D365" s="17" t="s">
         <v>1161</v>
@@ -13137,7 +13137,7 @@
         <v>1163</v>
       </c>
       <c r="C366" s="53" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="D366" s="20" t="s">
         <v>1164</v>
@@ -13154,7 +13154,7 @@
         <v>19</v>
       </c>
       <c r="C367" s="51" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="D367" s="17" t="s">
         <v>1167</v>
@@ -13171,7 +13171,7 @@
         <v>14</v>
       </c>
       <c r="C368" s="48" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="D368" s="9" t="s">
         <v>1168</v>
@@ -13188,7 +13188,7 @@
         <v>16</v>
       </c>
       <c r="C369" s="49" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="D369" s="12" t="s">
         <v>1169</v>
@@ -13205,7 +13205,7 @@
         <v>528</v>
       </c>
       <c r="C370" s="48" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="D370" s="9" t="s">
         <v>1170</v>
@@ -13222,7 +13222,7 @@
         <v>1171</v>
       </c>
       <c r="C371" s="51" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="D371" s="16" t="s">
         <v>1172</v>
@@ -13239,7 +13239,7 @@
         <v>123</v>
       </c>
       <c r="C372" s="48" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="D372" s="9" t="s">
         <v>1173</v>
@@ -13256,7 +13256,7 @@
         <v>64</v>
       </c>
       <c r="C373" s="49" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="D373" s="12" t="s">
         <v>1174</v>
@@ -13273,7 +13273,7 @@
         <v>57</v>
       </c>
       <c r="C374" s="48" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="D374" s="9" t="s">
         <v>1175</v>
@@ -13290,7 +13290,7 @@
         <v>85</v>
       </c>
       <c r="C375" s="49" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="D375" s="12" t="s">
         <v>1176</v>
@@ -13307,7 +13307,7 @@
         <v>30</v>
       </c>
       <c r="C376" s="48" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="D376" s="9" t="s">
         <v>1177</v>
@@ -13324,7 +13324,7 @@
         <v>52</v>
       </c>
       <c r="C377" s="49" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="D377" s="12" t="s">
         <v>1178</v>
@@ -13341,7 +13341,7 @@
         <v>656</v>
       </c>
       <c r="C378" s="85" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="D378" s="86" t="s">
         <v>657</v>
@@ -13358,7 +13358,7 @@
         <v>160</v>
       </c>
       <c r="C379" s="51" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="D379" s="16" t="s">
         <v>1180</v>
@@ -13375,7 +13375,7 @@
         <v>580</v>
       </c>
       <c r="C380" s="48" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="D380" s="9" t="s">
         <v>1181</v>
@@ -13392,7 +13392,7 @@
         <v>1183</v>
       </c>
       <c r="C381" s="51" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="D381" s="17" t="s">
         <v>1184</v>
@@ -13409,7 +13409,7 @@
         <v>47</v>
       </c>
       <c r="C382" s="48" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="D382" s="9" t="s">
         <v>1185</v>
@@ -13426,7 +13426,7 @@
         <v>1186</v>
       </c>
       <c r="C383" s="49" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="D383" s="12" t="s">
         <v>1187</v>
@@ -13443,7 +13443,7 @@
         <v>185</v>
       </c>
       <c r="C384" s="48" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="D384" s="9" t="s">
         <v>1188</v>
@@ -13460,7 +13460,7 @@
         <v>1190</v>
       </c>
       <c r="C385" s="49" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="D385" s="12" t="s">
         <v>1191</v>
@@ -13477,7 +13477,7 @@
         <v>154</v>
       </c>
       <c r="C386" s="48" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="D386" s="9" t="s">
         <v>1192</v>
@@ -13494,7 +13494,7 @@
         <v>26</v>
       </c>
       <c r="C387" s="51" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="D387" s="17" t="s">
         <v>1193</v>
@@ -13511,7 +13511,7 @@
         <v>1195</v>
       </c>
       <c r="C388" s="68" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="D388" s="69" t="s">
         <v>1196</v>
@@ -13528,7 +13528,7 @@
         <v>1198</v>
       </c>
       <c r="C389" s="51" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="D389" s="17" t="s">
         <v>1199</v>
@@ -13545,7 +13545,7 @@
         <v>89</v>
       </c>
       <c r="C390" s="48" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="D390" s="9" t="s">
         <v>362</v>
@@ -13562,7 +13562,7 @@
         <v>92</v>
       </c>
       <c r="C391" s="51" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="D391" s="16" t="s">
         <v>1200</v>
@@ -13579,7 +13579,7 @@
         <v>68</v>
       </c>
       <c r="C392" s="68" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="D392" s="69" t="s">
         <v>1202</v>
@@ -13596,7 +13596,7 @@
         <v>1204</v>
       </c>
       <c r="C393" s="49" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="D393" s="12" t="s">
         <v>1205</v>
@@ -13613,7 +13613,7 @@
         <v>59</v>
       </c>
       <c r="C394" s="53" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="D394" s="20" t="s">
         <v>1207</v>
@@ -13630,7 +13630,7 @@
         <v>166</v>
       </c>
       <c r="C395" s="51" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="D395" s="17" t="s">
         <v>1210</v>
@@ -13647,7 +13647,7 @@
         <v>1211</v>
       </c>
       <c r="C396" s="68" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="D396" s="69" t="s">
         <v>1212</v>
@@ -13664,7 +13664,7 @@
         <v>395</v>
       </c>
       <c r="C397" s="51" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="D397" s="17" t="s">
         <v>1213</v>
@@ -13681,7 +13681,7 @@
         <v>59</v>
       </c>
       <c r="C398" s="48" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="D398" s="9" t="s">
         <v>1214</v>
@@ -13698,7 +13698,7 @@
         <v>33</v>
       </c>
       <c r="C399" s="51" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="D399" s="17" t="s">
         <v>1215</v>
@@ -13715,7 +13715,7 @@
         <v>12</v>
       </c>
       <c r="C400" s="48" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="D400" s="9" t="s">
         <v>1216</v>
@@ -13732,7 +13732,7 @@
         <v>72</v>
       </c>
       <c r="C401" s="51" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="D401" s="17" t="s">
         <v>1217</v>
@@ -13749,7 +13749,7 @@
         <v>530</v>
       </c>
       <c r="C402" s="48" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="D402" s="9" t="s">
         <v>1218</v>
@@ -13766,7 +13766,7 @@
         <v>211</v>
       </c>
       <c r="C403" s="51" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="D403" s="17" t="s">
         <v>1219</v>
@@ -13783,7 +13783,7 @@
         <v>52</v>
       </c>
       <c r="C404" s="48" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="D404" s="9" t="s">
         <v>1220</v>
@@ -13800,7 +13800,7 @@
         <v>52</v>
       </c>
       <c r="C405" s="49" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="D405" s="12" t="s">
         <v>1221</v>
@@ -13817,7 +13817,7 @@
         <v>71</v>
       </c>
       <c r="C406" s="48" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="D406" s="9" t="s">
         <v>1222</v>
@@ -13834,7 +13834,7 @@
         <v>52</v>
       </c>
       <c r="C407" s="51" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="D407" s="16" t="s">
         <v>1224</v>
@@ -13851,7 +13851,7 @@
         <v>142</v>
       </c>
       <c r="C408" s="48" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="D408" s="9" t="s">
         <v>1225</v>
@@ -13868,7 +13868,7 @@
         <v>158</v>
       </c>
       <c r="C409" s="49" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="D409" s="12" t="s">
         <v>1226</v>
@@ -13885,7 +13885,7 @@
         <v>154</v>
       </c>
       <c r="C410" s="48" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="D410" s="9" t="s">
         <v>593</v>
@@ -13902,7 +13902,7 @@
         <v>19</v>
       </c>
       <c r="C411" s="51" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="D411" s="17" t="s">
         <v>460</v>
@@ -13919,7 +13919,7 @@
         <v>182</v>
       </c>
       <c r="C412" s="68" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
       <c r="D412" s="69" t="s">
         <v>1227</v>
@@ -13936,7 +13936,7 @@
         <v>28</v>
       </c>
       <c r="C413" s="51" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="D413" s="16" t="s">
         <v>1229</v>
@@ -13953,7 +13953,7 @@
         <v>27</v>
       </c>
       <c r="C414" s="48" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="D414" s="9" t="s">
         <v>1230</v>
@@ -13970,7 +13970,7 @@
         <v>91</v>
       </c>
       <c r="C415" s="51" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="D415" s="17" t="s">
         <v>1231</v>
@@ -13987,7 +13987,7 @@
         <v>66</v>
       </c>
       <c r="C416" s="68" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="D416" s="69" t="s">
         <v>1233</v>
@@ -14004,7 +14004,7 @@
         <v>296</v>
       </c>
       <c r="C417" s="51" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="D417" s="17" t="s">
         <v>1234</v>
@@ -14021,7 +14021,7 @@
         <v>86</v>
       </c>
       <c r="C418" s="48" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="D418" s="9" t="s">
         <v>1235</v>
@@ -14038,7 +14038,7 @@
         <v>55</v>
       </c>
       <c r="C419" s="51" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="D419" s="17" t="s">
         <v>1236</v>
@@ -14055,7 +14055,7 @@
         <v>133</v>
       </c>
       <c r="C420" s="48" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="D420" s="9" t="s">
         <v>1237</v>
@@ -14072,7 +14072,7 @@
         <v>49</v>
       </c>
       <c r="C421" s="49" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="D421" s="12" t="s">
         <v>1238</v>
@@ -14089,7 +14089,7 @@
         <v>64</v>
       </c>
       <c r="C422" s="48" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="D422" s="35" t="s">
         <v>1239</v>
@@ -14106,7 +14106,7 @@
         <v>85</v>
       </c>
       <c r="C423" s="51" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="D423" s="17" t="s">
         <v>341</v>
@@ -14123,7 +14123,7 @@
         <v>22</v>
       </c>
       <c r="C424" s="48" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="D424" s="9" t="s">
         <v>1240</v>
@@ -14140,7 +14140,7 @@
         <v>15</v>
       </c>
       <c r="C425" s="49" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="D425" s="12" t="s">
         <v>1241</v>
@@ -14157,7 +14157,7 @@
         <v>64</v>
       </c>
       <c r="C426" s="48" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="D426" s="9" t="s">
         <v>1242</v>
@@ -14174,7 +14174,7 @@
         <v>46</v>
       </c>
       <c r="C427" s="49" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="D427" s="12" t="s">
         <v>1243</v>
@@ -14191,7 +14191,7 @@
         <v>64</v>
       </c>
       <c r="C428" s="48" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="D428" s="9" t="s">
         <v>1244</v>
@@ -14208,7 +14208,7 @@
         <v>39</v>
       </c>
       <c r="C429" s="51" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="D429" s="17" t="s">
         <v>1245</v>
@@ -14225,7 +14225,7 @@
         <v>84</v>
       </c>
       <c r="C430" s="48" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="D430" s="9" t="s">
         <v>1246</v>
@@ -14242,7 +14242,7 @@
         <v>106</v>
       </c>
       <c r="C431" s="51" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="D431" s="16" t="s">
         <v>1247</v>
@@ -14259,7 +14259,7 @@
         <v>128</v>
       </c>
       <c r="C432" s="48" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="D432" s="9" t="s">
         <v>1248</v>
@@ -14276,7 +14276,7 @@
         <v>47</v>
       </c>
       <c r="C433" s="51" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="D433" s="17" t="s">
         <v>1249</v>
@@ -14293,7 +14293,7 @@
         <v>149</v>
       </c>
       <c r="C434" s="48" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="D434" s="9" t="s">
         <v>1250</v>
@@ -14310,7 +14310,7 @@
         <v>81</v>
       </c>
       <c r="C435" s="60" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="D435" s="41" t="s">
         <v>1252</v>
@@ -14327,7 +14327,7 @@
         <v>136</v>
       </c>
       <c r="C436" s="48" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="D436" s="9" t="s">
         <v>456</v>
@@ -14344,7 +14344,7 @@
         <v>73</v>
       </c>
       <c r="C437" s="49" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="D437" s="12" t="s">
         <v>541</v>
@@ -14361,7 +14361,7 @@
         <v>262</v>
       </c>
       <c r="C438" s="53" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="D438" s="20" t="s">
         <v>1253</v>
@@ -14378,7 +14378,7 @@
         <v>273</v>
       </c>
       <c r="C439" s="51" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="D439" s="17" t="s">
         <v>1256</v>
@@ -14395,7 +14395,7 @@
         <v>20</v>
       </c>
       <c r="C440" s="48" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="D440" s="9" t="s">
         <v>1257</v>
@@ -14412,7 +14412,7 @@
         <v>91</v>
       </c>
       <c r="C441" s="51" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="D441" s="17" t="s">
         <v>1258</v>
@@ -14429,7 +14429,7 @@
         <v>44</v>
       </c>
       <c r="C442" s="48" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="D442" s="9" t="s">
         <v>1259</v>
@@ -14446,7 +14446,7 @@
         <v>1119</v>
       </c>
       <c r="C443" s="49" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="D443" s="12" t="s">
         <v>1261</v>
@@ -14463,7 +14463,7 @@
         <v>44</v>
       </c>
       <c r="C444" s="68" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="D444" s="69" t="s">
         <v>1263</v>
@@ -14480,7 +14480,7 @@
         <v>67</v>
       </c>
       <c r="C445" s="51" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="D445" s="17" t="s">
         <v>1264</v>
@@ -14497,7 +14497,7 @@
         <v>28</v>
       </c>
       <c r="C446" s="53" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="D446" s="20" t="s">
         <v>1265</v>
@@ -14514,7 +14514,7 @@
         <v>57</v>
       </c>
       <c r="C447" s="49" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="D447" s="12" t="s">
         <v>1267</v>
@@ -14531,7 +14531,7 @@
         <v>87</v>
       </c>
       <c r="C448" s="68" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="D448" s="69" t="s">
         <v>1268</v>
@@ -14548,7 +14548,7 @@
         <v>777</v>
       </c>
       <c r="C449" s="51" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="D449" s="17" t="s">
         <v>1271</v>
@@ -14565,7 +14565,7 @@
         <v>106</v>
       </c>
       <c r="C450" s="48" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="D450" s="9" t="s">
         <v>1272</v>
@@ -14582,7 +14582,7 @@
         <v>30</v>
       </c>
       <c r="C451" s="49" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="D451" s="36" t="s">
         <v>1273</v>
@@ -14599,7 +14599,7 @@
         <v>8</v>
       </c>
       <c r="C452" s="48" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="D452" s="9" t="s">
         <v>1274</v>
@@ -14616,7 +14616,7 @@
         <v>77</v>
       </c>
       <c r="C453" s="51" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="D453" s="17" t="s">
         <v>1276</v>
@@ -14633,7 +14633,7 @@
         <v>91</v>
       </c>
       <c r="C454" s="48" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="D454" s="9" t="s">
         <v>368</v>
@@ -14650,7 +14650,7 @@
         <v>82</v>
       </c>
       <c r="C455" s="49" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="D455" s="12" t="s">
         <v>1278</v>
@@ -14667,7 +14667,7 @@
         <v>47</v>
       </c>
       <c r="C456" s="48" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="D456" s="35" t="s">
         <v>1279</v>
@@ -14684,7 +14684,7 @@
         <v>1281</v>
       </c>
       <c r="C457" s="51" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="D457" s="17" t="s">
         <v>1282</v>
@@ -14701,7 +14701,7 @@
         <v>834</v>
       </c>
       <c r="C458" s="48" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="D458" s="9" t="s">
         <v>1284</v>
@@ -14718,7 +14718,7 @@
         <v>77</v>
       </c>
       <c r="C459" s="51" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="D459" s="17" t="s">
         <v>1286</v>
@@ -14735,7 +14735,7 @@
         <v>128</v>
       </c>
       <c r="C460" s="68" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="D460" s="69" t="s">
         <v>1287</v>
@@ -14752,7 +14752,7 @@
         <v>26</v>
       </c>
       <c r="C461" s="51" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="D461" s="17" t="s">
         <v>1289</v>
@@ -14769,7 +14769,7 @@
         <v>55</v>
       </c>
       <c r="C462" s="53" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="D462" s="20" t="s">
         <v>1290</v>
@@ -14786,7 +14786,7 @@
         <v>1292</v>
       </c>
       <c r="C463" s="51" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D463" s="17" t="s">
         <v>1293</v>
@@ -14803,7 +14803,7 @@
         <v>33</v>
       </c>
       <c r="C464" s="68" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="D464" s="69" t="s">
         <v>1295</v>
@@ -14820,7 +14820,7 @@
         <v>88</v>
       </c>
       <c r="C465" s="51" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="D465" s="17" t="s">
         <v>1297</v>
@@ -14837,7 +14837,7 @@
         <v>181</v>
       </c>
       <c r="C466" s="48" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="D466" s="9" t="s">
         <v>1298</v>
@@ -14854,7 +14854,7 @@
         <v>128</v>
       </c>
       <c r="C467" s="51" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="D467" s="17" t="s">
         <v>1299</v>
@@ -14871,7 +14871,7 @@
         <v>336</v>
       </c>
       <c r="C468" s="48" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D468" s="9" t="s">
         <v>1300</v>
@@ -14888,7 +14888,7 @@
         <v>16</v>
       </c>
       <c r="C469" s="49" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="D469" s="12" t="s">
         <v>1301</v>
@@ -14905,7 +14905,7 @@
         <v>142</v>
       </c>
       <c r="C470" s="48" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="D470" s="9" t="s">
         <v>1302</v>
@@ -14922,7 +14922,7 @@
         <v>123</v>
       </c>
       <c r="C471" s="88" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="D471" s="89" t="s">
         <v>963</v>
@@ -14939,7 +14939,7 @@
         <v>60</v>
       </c>
       <c r="C472" s="53" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="D472" s="20" t="s">
         <v>1304</v>
@@ -14956,7 +14956,7 @@
         <v>197</v>
       </c>
       <c r="C473" s="49" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="D473" s="12" t="s">
         <v>1305</v>
@@ -14973,7 +14973,7 @@
         <v>205</v>
       </c>
       <c r="C474" s="48" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="D474" s="9" t="s">
         <v>513</v>
@@ -14990,7 +14990,7 @@
         <v>3</v>
       </c>
       <c r="C475" s="51" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="D475" s="17" t="s">
         <v>1306</v>
@@ -15007,7 +15007,7 @@
         <v>35</v>
       </c>
       <c r="C476" s="48" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="D476" s="9" t="s">
         <v>1307</v>
@@ -15024,7 +15024,7 @@
         <v>19</v>
       </c>
       <c r="C477" s="49" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="D477" s="12" t="s">
         <v>1308</v>
@@ -15041,7 +15041,7 @@
         <v>1123</v>
       </c>
       <c r="C478" s="53" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="D478" s="20" t="s">
         <v>1310</v>
@@ -15058,7 +15058,7 @@
         <v>47</v>
       </c>
       <c r="C479" s="51" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="D479" s="17" t="s">
         <v>1311</v>
@@ -15075,7 +15075,7 @@
         <v>1313</v>
       </c>
       <c r="C480" s="68" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="D480" s="69" t="s">
         <v>1314</v>
@@ -15092,7 +15092,7 @@
         <v>26</v>
       </c>
       <c r="C481" s="51" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="D481" s="17" t="s">
         <v>1317</v>
@@ -15109,7 +15109,7 @@
         <v>160</v>
       </c>
       <c r="C482" s="53" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="D482" s="20" t="s">
         <v>1319</v>
@@ -15126,7 +15126,7 @@
         <v>1123</v>
       </c>
       <c r="C483" s="51" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="D483" s="17" t="s">
         <v>1321</v>
@@ -15143,7 +15143,7 @@
         <v>1322</v>
       </c>
       <c r="C484" s="68" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="D484" s="69" t="s">
         <v>1323</v>
@@ -15160,7 +15160,7 @@
         <v>487</v>
       </c>
       <c r="C485" s="51" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="D485" s="17" t="s">
         <v>1324</v>
@@ -15177,7 +15177,7 @@
         <v>19</v>
       </c>
       <c r="C486" s="48" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="D486" s="9" t="s">
         <v>1325</v>
@@ -15194,7 +15194,7 @@
         <v>133</v>
       </c>
       <c r="C487" s="51" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="D487" s="17" t="s">
         <v>1326</v>
@@ -15211,7 +15211,7 @@
         <v>127</v>
       </c>
       <c r="C488" s="48" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="D488" s="9" t="s">
         <v>511</v>
@@ -15228,7 +15228,7 @@
         <v>44</v>
       </c>
       <c r="C489" s="49" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="D489" s="12" t="s">
         <v>478</v>
@@ -15245,7 +15245,7 @@
         <v>46</v>
       </c>
       <c r="C490" s="48" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="D490" s="9" t="s">
         <v>1327</v>
@@ -15262,7 +15262,7 @@
         <v>63</v>
       </c>
       <c r="C491" s="49" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="D491" s="12" t="s">
         <v>514</v>
@@ -15279,7 +15279,7 @@
         <v>75</v>
       </c>
       <c r="C492" s="48" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="D492" s="9" t="s">
         <v>321</v>
@@ -15296,7 +15296,7 @@
         <v>28</v>
       </c>
       <c r="C493" s="61" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="D493" s="43" t="s">
         <v>1328</v>
@@ -15313,7 +15313,7 @@
         <v>172</v>
       </c>
       <c r="C494" s="48" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="D494" s="9" t="s">
         <v>520</v>
@@ -15330,7 +15330,7 @@
         <v>76</v>
       </c>
       <c r="C495" s="51" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="D495" s="17" t="s">
         <v>1330</v>
@@ -15347,7 +15347,7 @@
         <v>206</v>
       </c>
       <c r="C496" s="48" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="D496" s="9" t="s">
         <v>1331</v>
@@ -15364,7 +15364,7 @@
         <v>160</v>
       </c>
       <c r="C497" s="49" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="D497" s="36" t="s">
         <v>1332</v>
@@ -15381,7 +15381,7 @@
         <v>92</v>
       </c>
       <c r="C498" s="53" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="D498" s="20" t="s">
         <v>1333</v>
@@ -15398,7 +15398,7 @@
         <v>498</v>
       </c>
       <c r="C499" s="49" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="D499" s="12" t="s">
         <v>1335</v>
@@ -15415,7 +15415,7 @@
         <v>1337</v>
       </c>
       <c r="C500" s="68" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="D500" s="69" t="s">
         <v>1338</v>
@@ -15432,7 +15432,7 @@
         <v>856</v>
       </c>
       <c r="C501" s="51" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="D501" s="17" t="s">
         <v>1340</v>
@@ -15449,7 +15449,7 @@
         <v>85</v>
       </c>
       <c r="C502" s="53" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="D502" s="20" t="s">
         <v>1341</v>
@@ -15466,7 +15466,7 @@
         <v>1342</v>
       </c>
       <c r="C503" s="49" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="D503" s="36" t="s">
         <v>1343</v>
@@ -15483,7 +15483,7 @@
         <v>44</v>
       </c>
       <c r="C504" s="68" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="D504" s="69" t="s">
         <v>1344</v>
@@ -15500,7 +15500,7 @@
         <v>30</v>
       </c>
       <c r="C505" s="51" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="D505" s="16" t="s">
         <v>1346</v>
@@ -15517,7 +15517,7 @@
         <v>63</v>
       </c>
       <c r="C506" s="53" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="D506" s="20" t="s">
         <v>365</v>
@@ -15534,7 +15534,7 @@
         <v>25</v>
       </c>
       <c r="C507" s="51" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="D507" s="17" t="s">
         <v>1349</v>
@@ -15551,7 +15551,7 @@
         <v>33</v>
       </c>
       <c r="C508" s="68" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="D508" s="69" t="s">
         <v>1350</v>
@@ -15568,7 +15568,7 @@
         <v>51</v>
       </c>
       <c r="C509" s="51" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="D509" s="17" t="s">
         <v>1351</v>
@@ -15585,7 +15585,7 @@
         <v>81</v>
       </c>
       <c r="C510" s="53" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="D510" s="20" t="s">
         <v>1352</v>
@@ -15602,7 +15602,7 @@
         <v>15</v>
       </c>
       <c r="C511" s="51" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="D511" s="17" t="s">
         <v>1353</v>
@@ -15619,7 +15619,7 @@
         <v>429</v>
       </c>
       <c r="C512" s="48" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="D512" s="9" t="s">
         <v>1354</v>
@@ -15636,7 +15636,7 @@
         <v>84</v>
       </c>
       <c r="C513" s="51" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="D513" s="17" t="s">
         <v>1355</v>
@@ -15653,7 +15653,7 @@
         <v>28</v>
       </c>
       <c r="C514" s="48" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="D514" s="9" t="s">
         <v>1356</v>
@@ -15670,7 +15670,7 @@
         <v>242</v>
       </c>
       <c r="C515" s="49" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="D515" s="12" t="s">
         <v>243</v>
@@ -15687,7 +15687,7 @@
         <v>33</v>
       </c>
       <c r="C516" s="60" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="D516" s="80" t="s">
         <v>1357</v>
@@ -15704,7 +15704,7 @@
         <v>1195</v>
       </c>
       <c r="C517" s="51" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="D517" s="16" t="s">
         <v>1360</v>
@@ -15721,7 +15721,7 @@
         <v>132</v>
       </c>
       <c r="C518" s="53" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="D518" s="20" t="s">
         <v>1361</v>
@@ -15738,7 +15738,7 @@
         <v>1364</v>
       </c>
       <c r="C519" s="51" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="D519" s="16" t="s">
         <v>1365</v>
@@ -15755,7 +15755,7 @@
         <v>1367</v>
       </c>
       <c r="C520" s="68" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="D520" s="67" t="s">
         <v>1368</v>
@@ -15772,7 +15772,7 @@
         <v>44</v>
       </c>
       <c r="C521" s="49" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="D521" s="12" t="s">
         <v>1369</v>
@@ -15789,7 +15789,7 @@
         <v>1371</v>
       </c>
       <c r="C522" s="53" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="D522" s="20" t="s">
         <v>1372</v>
@@ -15806,7 +15806,7 @@
         <v>135</v>
       </c>
       <c r="C523" s="51" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="D523" s="17" t="s">
         <v>1374</v>
@@ -15823,13 +15823,13 @@
         <v>52</v>
       </c>
       <c r="C524" s="48" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="D524" s="9" t="s">
         <v>1375</v>
       </c>
       <c r="E524" s="44" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -15838,7 +15838,7 @@
       <c r="C525" s="49"/>
       <c r="D525" s="12"/>
       <c r="E525" s="45" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -15849,13 +15849,13 @@
         <v>1377</v>
       </c>
       <c r="C526" s="48" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="D526" s="9" t="s">
         <v>1378</v>
       </c>
       <c r="E526" s="44" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -15864,7 +15864,7 @@
       <c r="C527" s="49"/>
       <c r="D527" s="12"/>
       <c r="E527" s="45" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -15875,13 +15875,13 @@
         <v>1379</v>
       </c>
       <c r="C528" s="48" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="D528" s="9" t="s">
         <v>1380</v>
       </c>
       <c r="E528" s="44" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -15890,7 +15890,7 @@
       <c r="C529" s="49"/>
       <c r="D529" s="12"/>
       <c r="E529" s="45" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -15901,13 +15901,13 @@
         <v>72</v>
       </c>
       <c r="C530" s="48" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="D530" s="9" t="s">
         <v>1381</v>
       </c>
       <c r="E530" s="44" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -15916,7 +15916,7 @@
       <c r="C531" s="49"/>
       <c r="D531" s="12"/>
       <c r="E531" s="45" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -15927,13 +15927,13 @@
         <v>1377</v>
       </c>
       <c r="C532" s="48" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="D532" s="9" t="s">
         <v>1383</v>
       </c>
       <c r="E532" s="44" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -15942,7 +15942,7 @@
       <c r="C533" s="49"/>
       <c r="D533" s="12"/>
       <c r="E533" s="45" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -15953,13 +15953,13 @@
         <v>71</v>
       </c>
       <c r="C534" s="48" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="D534" s="9" t="s">
         <v>1384</v>
       </c>
       <c r="E534" s="44" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -15968,7 +15968,7 @@
       <c r="C535" s="49"/>
       <c r="D535" s="12"/>
       <c r="E535" s="45" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -15979,13 +15979,13 @@
         <v>1386</v>
       </c>
       <c r="C536" s="48" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="D536" s="9" t="s">
         <v>1387</v>
       </c>
       <c r="E536" s="44" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -15994,7 +15994,7 @@
       <c r="C537" s="49"/>
       <c r="D537" s="12"/>
       <c r="E537" s="45" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -16005,13 +16005,13 @@
         <v>177</v>
       </c>
       <c r="C538" s="48" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="D538" s="9" t="s">
         <v>1388</v>
       </c>
       <c r="E538" s="44" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -16020,7 +16020,7 @@
       <c r="C539" s="49"/>
       <c r="D539" s="12"/>
       <c r="E539" s="45" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="540" spans="1:5">
@@ -16031,13 +16031,13 @@
         <v>1390</v>
       </c>
       <c r="C540" s="48" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="D540" s="9" t="s">
         <v>1391</v>
       </c>
       <c r="E540" s="44" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -16046,7 +16046,7 @@
       <c r="C541" s="49"/>
       <c r="D541" s="12"/>
       <c r="E541" s="45" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="542" spans="1:5">
@@ -16057,13 +16057,13 @@
         <v>1392</v>
       </c>
       <c r="C542" s="48" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="D542" s="9" t="s">
         <v>1393</v>
       </c>
       <c r="E542" s="44" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -16072,7 +16072,7 @@
       <c r="C543" s="49"/>
       <c r="D543" s="12"/>
       <c r="E543" s="45" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -16083,13 +16083,13 @@
         <v>25</v>
       </c>
       <c r="C544" s="48" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="D544" s="9" t="s">
         <v>1394</v>
       </c>
       <c r="E544" s="44" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -16098,7 +16098,7 @@
       <c r="C545" s="49"/>
       <c r="D545" s="12"/>
       <c r="E545" s="45" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="546" spans="1:5">
@@ -16109,13 +16109,13 @@
         <v>87</v>
       </c>
       <c r="C546" s="48" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="D546" s="9" t="s">
         <v>1395</v>
       </c>
       <c r="E546" s="44" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -16124,7 +16124,7 @@
       <c r="C547" s="49"/>
       <c r="D547" s="12"/>
       <c r="E547" s="45" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -16135,13 +16135,13 @@
         <v>1397</v>
       </c>
       <c r="C548" s="48" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="D548" s="9" t="s">
         <v>1398</v>
       </c>
       <c r="E548" s="44" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -16150,7 +16150,7 @@
       <c r="C549" s="49"/>
       <c r="D549" s="12"/>
       <c r="E549" s="44" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -16158,16 +16158,16 @@
         <v>285</v>
       </c>
       <c r="B550" s="8" t="s">
-        <v>1399</v>
+        <v>2013</v>
       </c>
       <c r="C550" s="48" t="s">
-        <v>1953</v>
+        <v>2014</v>
       </c>
       <c r="D550" s="9" t="s">
-        <v>1400</v>
+        <v>2015</v>
       </c>
       <c r="E550" s="44" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="551" spans="1:5">
@@ -16176,24 +16176,24 @@
       <c r="C551" s="49"/>
       <c r="D551" s="12"/>
       <c r="E551" s="45" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="552" spans="1:5">
       <c r="A552" s="8" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="B552" s="8" t="s">
         <v>154</v>
       </c>
       <c r="C552" s="48" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="D552" s="9" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="E552" s="44" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -16202,24 +16202,24 @@
       <c r="C553" s="49"/>
       <c r="D553" s="12"/>
       <c r="E553" s="45" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="554" spans="1:5">
       <c r="A554" s="8" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B554" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C554" s="48" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="D554" s="9" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="E554" s="44" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -16228,7 +16228,7 @@
       <c r="C555" s="49"/>
       <c r="D555" s="12"/>
       <c r="E555" s="45" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -16236,16 +16236,16 @@
         <v>202</v>
       </c>
       <c r="B556" s="8" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="C556" s="48" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="D556" s="9" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="E556" s="44" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -16254,7 +16254,7 @@
       <c r="C557" s="49"/>
       <c r="D557" s="12"/>
       <c r="E557" s="45" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -16265,13 +16265,13 @@
         <v>98</v>
       </c>
       <c r="C558" s="48" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="D558" s="9" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="E558" s="44" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="559" spans="1:5">
@@ -16280,24 +16280,24 @@
       <c r="C559" s="49"/>
       <c r="D559" s="12"/>
       <c r="E559" s="45" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="560" spans="1:5">
       <c r="A560" s="8" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B560" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C560" s="48" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="D560" s="9" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="E560" s="44" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -16306,7 +16306,7 @@
       <c r="C561" s="49"/>
       <c r="D561" s="12"/>
       <c r="E561" s="45" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -16317,13 +16317,13 @@
         <v>1038</v>
       </c>
       <c r="C562" s="48" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="D562" s="9" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="E562" s="44" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -16332,24 +16332,24 @@
       <c r="C563" s="49"/>
       <c r="D563" s="12"/>
       <c r="E563" s="45" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="564" spans="1:5">
       <c r="A564" s="8" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="B564" s="8" t="s">
         <v>181</v>
       </c>
       <c r="C564" s="48" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="D564" s="9" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="E564" s="44" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -16358,24 +16358,24 @@
       <c r="C565" s="49"/>
       <c r="D565" s="12"/>
       <c r="E565" s="45" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="566" spans="1:5">
       <c r="A566" s="8" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B566" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C566" s="48" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="D566" s="9" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="E566" s="44" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -16384,7 +16384,7 @@
       <c r="C567" s="49"/>
       <c r="D567" s="12"/>
       <c r="E567" s="45" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="568" spans="1:5">
@@ -16395,13 +16395,13 @@
         <v>121</v>
       </c>
       <c r="C568" s="48" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="D568" s="9" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="E568" s="44" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="569" spans="1:5">
@@ -16410,7 +16410,7 @@
       <c r="C569" s="49"/>
       <c r="D569" s="12"/>
       <c r="E569" s="45" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="570" spans="1:5">
@@ -16422,10 +16422,10 @@
       </c>
       <c r="C570" s="48"/>
       <c r="D570" s="9" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="E570" s="44" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -16434,7 +16434,7 @@
       <c r="C571" s="49"/>
       <c r="D571" s="12"/>
       <c r="E571" s="45" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="572" spans="1:5">
@@ -16445,13 +16445,13 @@
         <v>36</v>
       </c>
       <c r="C572" s="48" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="D572" s="9" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="E572" s="44" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -16464,24 +16464,24 @@
       <c r="C573" s="49"/>
       <c r="D573" s="12"/>
       <c r="E573" s="45" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="574" spans="1:5">
       <c r="A574" s="8" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="B574" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C574" s="48" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="D574" s="9" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="E574" s="44" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -16492,13 +16492,13 @@
         <v>81</v>
       </c>
       <c r="C575" s="49" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="D575" s="12" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="E575" s="45" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/documents/predsjednici.xlsx
+++ b/src/main/resources/documents/predsjednici.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malin\Documents\Izbori\flow-crm-tutorial\src\main\resources\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3D1A43-D270-4B28-B632-EFD8CB06076C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872ACE81-C634-44AC-B782-4A3F47FAAEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6066,13 +6066,13 @@
     <t>065/072-903</t>
   </si>
   <si>
-    <t>DANKO</t>
-  </si>
-  <si>
     <t>1610968100013</t>
   </si>
   <si>
     <t>065/514-054</t>
+  </si>
+  <si>
+    <t>DUŠAN</t>
   </si>
 </sst>
 </file>
@@ -6913,8 +6913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A540" workbookViewId="0">
-      <selection activeCell="D550" sqref="D550"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="B178" sqref="B178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -16158,13 +16158,13 @@
         <v>285</v>
       </c>
       <c r="B550" s="8" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C550" s="48" t="s">
         <v>2013</v>
       </c>
-      <c r="C550" s="48" t="s">
+      <c r="D550" s="9" t="s">
         <v>2014</v>
-      </c>
-      <c r="D550" s="9" t="s">
-        <v>2015</v>
       </c>
       <c r="E550" s="44" t="s">
         <v>1993</v>

--- a/src/main/resources/documents/predsjednici.xlsx
+++ b/src/main/resources/documents/predsjednici.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malin\Documents\Izbori\flow-crm-tutorial\src\main\resources\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872ACE81-C634-44AC-B782-4A3F47FAAEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307F3EFF-FD79-4D3C-8D09-D2EE5675E9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="2016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2769" uniqueCount="2014">
   <si>
     <t>JMBG</t>
   </si>
@@ -6066,13 +6066,7 @@
     <t>065/072-903</t>
   </si>
   <si>
-    <t>1610968100013</t>
-  </si>
-  <si>
-    <t>065/514-054</t>
-  </si>
-  <si>
-    <t>DUŠAN</t>
+    <t>1604004105009</t>
   </si>
 </sst>
 </file>
@@ -6913,8 +6907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="B178" sqref="B178"/>
+    <sheetView tabSelected="1" topLeftCell="A537" workbookViewId="0">
+      <selection activeCell="D550" sqref="D550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8831,34 +8825,34 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="B113" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C113" s="51" t="s">
-        <v>1526</v>
-      </c>
-      <c r="D113" s="16" t="s">
-        <v>783</v>
+      <c r="A113" s="19" t="s">
+        <v>784</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C113" s="53" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D113" s="20" t="s">
+        <v>785</v>
       </c>
       <c r="E113" s="15" t="s">
         <v>1966</v>
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="19" t="s">
-        <v>784</v>
-      </c>
-      <c r="B114" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C114" s="53" t="s">
-        <v>1527</v>
-      </c>
-      <c r="D114" s="20" t="s">
-        <v>785</v>
+      <c r="A114" s="84" t="s">
+        <v>264</v>
+      </c>
+      <c r="B114" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="C114" s="85" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D114" s="84" t="s">
+        <v>783</v>
       </c>
       <c r="E114" s="18" t="s">
         <v>1969</v>
@@ -14490,34 +14484,34 @@
       </c>
     </row>
     <row r="446" spans="1:5">
-      <c r="A446" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="B446" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C446" s="53" t="s">
-        <v>1860</v>
-      </c>
-      <c r="D446" s="20" t="s">
-        <v>1265</v>
+      <c r="A446" s="16" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B446" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C446" s="49" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D446" s="12" t="s">
+        <v>1267</v>
       </c>
       <c r="E446" s="15" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="447" spans="1:5">
-      <c r="A447" s="16" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B447" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C447" s="49" t="s">
-        <v>1861</v>
-      </c>
-      <c r="D447" s="12" t="s">
-        <v>1267</v>
+      <c r="A447" s="87" t="s">
+        <v>446</v>
+      </c>
+      <c r="B447" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="C447" s="88" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D447" s="89" t="s">
+        <v>1265</v>
       </c>
       <c r="E447" s="18" t="s">
         <v>499</v>
@@ -16155,17 +16149,15 @@
     </row>
     <row r="550" spans="1:5">
       <c r="A550" s="8" t="s">
-        <v>285</v>
+        <v>104</v>
       </c>
       <c r="B550" s="8" t="s">
-        <v>2015</v>
+        <v>19</v>
       </c>
       <c r="C550" s="48" t="s">
         <v>2013</v>
       </c>
-      <c r="D550" s="9" t="s">
-        <v>2014</v>
-      </c>
+      <c r="D550" s="9"/>
       <c r="E550" s="44" t="s">
         <v>1993</v>
       </c>
